--- a/excels/Form 3.1 - Check List Inspeksi HSE Work Practice.xlsx
+++ b/excels/Form 3.1 - Check List Inspeksi HSE Work Practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/ecsms/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ecsms\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE86DB80-CBD7-2445-BD9D-9E80491CE2CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3063B3BD-B104-4B94-A21F-8FF52B054B54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4340" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -919,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1016,16 +1016,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
@@ -1037,6 +1061,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1045,20 +1081,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1069,11 +1102,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1138,41 +1174,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2166,43 +2175,43 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="4.5" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2210,7 +2219,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2218,7 +2227,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2226,7 +2235,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2234,19 +2243,19 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="52" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="53"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="25" t="s">
         <v>10</v>
       </c>
@@ -2260,3043 +2269,3043 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="67">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="79">
         <v>1</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+    </row>
+    <row r="13" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="80"/>
       <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="36"/>
       <c r="H13" s="36">
         <v>2</v>
       </c>
       <c r="I13" s="36"/>
-      <c r="J13" s="78"/>
-    </row>
-    <row r="14" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="80"/>
       <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36">
         <v>2</v>
       </c>
       <c r="I14" s="36"/>
-      <c r="J14" s="78"/>
-    </row>
-    <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
+      <c r="J14" s="37"/>
+    </row>
+    <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="80"/>
       <c r="B15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36">
         <v>2</v>
       </c>
       <c r="I15" s="36"/>
-      <c r="J15" s="78"/>
-    </row>
-    <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68"/>
+      <c r="J15" s="37"/>
+    </row>
+    <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="80"/>
       <c r="B16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36">
         <v>2</v>
       </c>
       <c r="I16" s="36"/>
-      <c r="J16" s="78"/>
-    </row>
-    <row r="17" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
       <c r="B17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36">
         <v>2</v>
       </c>
       <c r="I17" s="36"/>
-      <c r="J17" s="78"/>
-    </row>
-    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67">
-        <v>2</v>
-      </c>
-      <c r="B18" s="55" t="s">
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="79">
+        <v>2</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="55"/>
-    </row>
-    <row r="19" spans="1:10" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="68"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+    </row>
+    <row r="19" spans="1:10" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="80"/>
       <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="36"/>
       <c r="H19" s="36">
         <v>3</v>
       </c>
       <c r="I19" s="36"/>
-      <c r="J19" s="86"/>
-    </row>
-    <row r="20" spans="1:10" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68"/>
+      <c r="J19" s="41"/>
+    </row>
+    <row r="20" spans="1:10" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="80"/>
       <c r="B20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36">
         <v>2</v>
       </c>
       <c r="I20" s="36"/>
-      <c r="J20" s="86"/>
-    </row>
-    <row r="21" spans="1:10" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="69"/>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="1:10" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="81"/>
       <c r="B21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36">
         <v>2</v>
       </c>
       <c r="I21" s="36"/>
-      <c r="J21" s="86"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="67">
+      <c r="J21" s="41"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="79">
         <v>3</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="87"/>
-    </row>
-    <row r="23" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="68"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62"/>
+    </row>
+    <row r="23" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
       <c r="B23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36">
         <v>2</v>
       </c>
       <c r="I23" s="36"/>
-      <c r="J23" s="86"/>
-    </row>
-    <row r="24" spans="1:10" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="68"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
       <c r="B24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36">
         <v>2</v>
       </c>
       <c r="I24" s="36"/>
-      <c r="J24" s="86"/>
-    </row>
-    <row r="25" spans="1:10" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="69"/>
+      <c r="J24" s="41"/>
+    </row>
+    <row r="25" spans="1:10" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="81"/>
       <c r="B25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="36"/>
       <c r="H25" s="36">
         <v>2</v>
       </c>
       <c r="I25" s="36"/>
-      <c r="J25" s="86"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="67">
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="79">
         <v>4</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="55"/>
-    </row>
-    <row r="27" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="68"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+    </row>
+    <row r="27" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="80"/>
       <c r="B27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="36"/>
       <c r="H27" s="14">
         <v>3</v>
       </c>
       <c r="I27" s="36"/>
-      <c r="J27" s="78"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="80"/>
       <c r="B28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="36"/>
       <c r="H28" s="14">
         <v>3</v>
       </c>
       <c r="I28" s="36"/>
-      <c r="J28" s="78"/>
-    </row>
-    <row r="29" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="69"/>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="81"/>
       <c r="B29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="36"/>
       <c r="H29" s="14">
         <v>3</v>
       </c>
       <c r="I29" s="36"/>
-      <c r="J29" s="78"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="67">
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="79">
         <v>5</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="55"/>
-    </row>
-    <row r="31" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="48"/>
+    </row>
+    <row r="31" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="80"/>
       <c r="B31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
       <c r="G31" s="36"/>
       <c r="H31" s="14">
         <v>3</v>
       </c>
       <c r="I31" s="36"/>
-      <c r="J31" s="78"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="68"/>
+      <c r="J31" s="37"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="80"/>
       <c r="B32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="48"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="36"/>
       <c r="H32" s="14">
         <v>3</v>
       </c>
       <c r="I32" s="36"/>
-      <c r="J32" s="78"/>
-    </row>
-    <row r="33" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
+      <c r="J32" s="37"/>
+    </row>
+    <row r="33" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="81"/>
       <c r="B33" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="48"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
       <c r="G33" s="36"/>
       <c r="H33" s="14">
         <v>3</v>
       </c>
       <c r="I33" s="36"/>
-      <c r="J33" s="78"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="67">
+      <c r="J33" s="37"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="79">
         <v>6</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="55"/>
-    </row>
-    <row r="35" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="68"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="48"/>
+    </row>
+    <row r="35" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="80"/>
       <c r="B35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="36"/>
       <c r="H35" s="14">
         <v>2</v>
       </c>
       <c r="I35" s="36"/>
-      <c r="J35" s="78"/>
-    </row>
-    <row r="36" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="68"/>
+      <c r="J35" s="37"/>
+    </row>
+    <row r="36" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="80"/>
       <c r="B36" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="48"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="36"/>
       <c r="H36" s="14">
         <v>3</v>
       </c>
       <c r="I36" s="36"/>
-      <c r="J36" s="78"/>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="68"/>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="80"/>
       <c r="B37" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="48"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
       <c r="G37" s="36"/>
       <c r="H37" s="14">
         <v>3</v>
       </c>
       <c r="I37" s="36"/>
-      <c r="J37" s="78"/>
-    </row>
-    <row r="38" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="69"/>
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="81"/>
       <c r="B38" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="48"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
       <c r="G38" s="36"/>
       <c r="H38" s="14">
         <v>3</v>
       </c>
       <c r="I38" s="36"/>
-      <c r="J38" s="78"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="67">
+      <c r="J38" s="37"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="79">
         <v>7</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="55"/>
-    </row>
-    <row r="40" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="68"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="48"/>
+    </row>
+    <row r="40" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="80"/>
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="36"/>
       <c r="H40" s="14">
         <v>3</v>
       </c>
       <c r="I40" s="36"/>
-      <c r="J40" s="78"/>
-    </row>
-    <row r="41" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="68"/>
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="80"/>
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="48"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="36"/>
       <c r="H41" s="14">
         <v>3</v>
       </c>
       <c r="I41" s="36"/>
-      <c r="J41" s="78"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="68"/>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="80"/>
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="48"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="45"/>
       <c r="G42" s="36"/>
       <c r="H42" s="14">
         <v>3</v>
       </c>
       <c r="I42" s="36"/>
-      <c r="J42" s="78"/>
-    </row>
-    <row r="43" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="68"/>
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="80"/>
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="48"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
       <c r="G43" s="36"/>
       <c r="H43" s="14">
         <v>3</v>
       </c>
       <c r="I43" s="36"/>
-      <c r="J43" s="78"/>
-    </row>
-    <row r="44" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="69"/>
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="81"/>
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="48"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="36"/>
       <c r="H44" s="14">
         <v>3</v>
       </c>
       <c r="I44" s="36"/>
-      <c r="J44" s="78"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="67">
-        <v>8</v>
-      </c>
-      <c r="B45" s="40" t="s">
+      <c r="J44" s="37"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="79">
+        <v>8</v>
+      </c>
+      <c r="B45" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="55"/>
-    </row>
-    <row r="46" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="68"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="48"/>
+    </row>
+    <row r="46" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="80"/>
       <c r="B46" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="71"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="48"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="36"/>
       <c r="H46" s="14">
         <v>3</v>
       </c>
       <c r="I46" s="36"/>
-      <c r="J46" s="78"/>
-    </row>
-    <row r="47" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="68"/>
+      <c r="J46" s="37"/>
+    </row>
+    <row r="47" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="80"/>
       <c r="B47" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="48"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="45"/>
       <c r="G47" s="36"/>
       <c r="H47" s="14">
         <v>2</v>
       </c>
       <c r="I47" s="36"/>
-      <c r="J47" s="78"/>
-    </row>
-    <row r="48" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="68"/>
+      <c r="J47" s="37"/>
+    </row>
+    <row r="48" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="80"/>
       <c r="B48" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="45"/>
       <c r="G48" s="36"/>
       <c r="H48" s="14">
         <v>3</v>
       </c>
       <c r="I48" s="36"/>
-      <c r="J48" s="78"/>
-    </row>
-    <row r="49" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="68"/>
+      <c r="J48" s="37"/>
+    </row>
+    <row r="49" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="80"/>
       <c r="B49" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="45"/>
       <c r="G49" s="36"/>
       <c r="H49" s="14">
         <v>3</v>
       </c>
       <c r="I49" s="36"/>
-      <c r="J49" s="78"/>
-    </row>
-    <row r="50" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="68"/>
+      <c r="J49" s="37"/>
+    </row>
+    <row r="50" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="80"/>
       <c r="B50" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="48"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
       <c r="G50" s="36"/>
       <c r="H50" s="14">
         <v>1</v>
       </c>
       <c r="I50" s="36"/>
-      <c r="J50" s="78"/>
-    </row>
-    <row r="51" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="69"/>
+      <c r="J50" s="37"/>
+    </row>
+    <row r="51" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="81"/>
       <c r="B51" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="48"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="45"/>
       <c r="G51" s="36"/>
       <c r="H51" s="14">
         <v>2</v>
       </c>
       <c r="I51" s="36"/>
-      <c r="J51" s="78"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="67">
+      <c r="J51" s="37"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="79">
         <v>9</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="55"/>
-    </row>
-    <row r="53" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="68"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="48"/>
+    </row>
+    <row r="53" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="80"/>
       <c r="B53" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="48"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="45"/>
       <c r="G53" s="36"/>
       <c r="H53" s="14">
         <v>2</v>
       </c>
       <c r="I53" s="36"/>
-      <c r="J53" s="78"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="68"/>
+      <c r="J53" s="37"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="80"/>
       <c r="B54" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="42" t="s">
+      <c r="C54" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="48"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45"/>
       <c r="G54" s="36"/>
       <c r="H54" s="14">
         <v>2</v>
       </c>
       <c r="I54" s="36"/>
-      <c r="J54" s="78"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="68"/>
+      <c r="J54" s="37"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="80"/>
       <c r="B55" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="48"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="45"/>
       <c r="G55" s="36"/>
       <c r="H55" s="14">
         <v>2</v>
       </c>
       <c r="I55" s="36"/>
-      <c r="J55" s="78"/>
-    </row>
-    <row r="56" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="68"/>
+      <c r="J55" s="37"/>
+    </row>
+    <row r="56" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="80"/>
       <c r="B56" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="48"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="45"/>
       <c r="G56" s="36"/>
       <c r="H56" s="14">
         <v>2</v>
       </c>
       <c r="I56" s="36"/>
-      <c r="J56" s="78"/>
-    </row>
-    <row r="57" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="68"/>
+      <c r="J56" s="37"/>
+    </row>
+    <row r="57" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="80"/>
       <c r="B57" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="48"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="45"/>
       <c r="G57" s="36"/>
       <c r="H57" s="14">
         <v>2</v>
       </c>
       <c r="I57" s="36"/>
-      <c r="J57" s="78"/>
-    </row>
-    <row r="58" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="68"/>
+      <c r="J57" s="37"/>
+    </row>
+    <row r="58" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="80"/>
       <c r="B58" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="48"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="45"/>
       <c r="G58" s="36"/>
       <c r="H58" s="14">
         <v>2</v>
       </c>
       <c r="I58" s="36"/>
-      <c r="J58" s="78"/>
-    </row>
-    <row r="59" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="68"/>
+      <c r="J58" s="37"/>
+    </row>
+    <row r="59" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="80"/>
       <c r="B59" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="48"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="45"/>
       <c r="G59" s="36"/>
       <c r="H59" s="14">
         <v>2</v>
       </c>
       <c r="I59" s="36"/>
-      <c r="J59" s="78"/>
-    </row>
-    <row r="60" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="69"/>
+      <c r="J59" s="37"/>
+    </row>
+    <row r="60" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="81"/>
       <c r="B60" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="48"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="45"/>
       <c r="G60" s="36"/>
       <c r="H60" s="14">
         <v>2</v>
       </c>
       <c r="I60" s="36"/>
-      <c r="J60" s="78"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="67">
+      <c r="J60" s="37"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="79">
         <v>10</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="55"/>
-    </row>
-    <row r="62" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="68"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="48"/>
+    </row>
+    <row r="62" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="80"/>
       <c r="B62" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="48"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="45"/>
       <c r="G62" s="36"/>
       <c r="H62" s="14">
         <v>2</v>
       </c>
       <c r="I62" s="36"/>
-      <c r="J62" s="78"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="68"/>
+      <c r="J62" s="37"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="80"/>
       <c r="B63" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="42" t="s">
+      <c r="C63" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="42"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="48"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="45"/>
       <c r="G63" s="36"/>
       <c r="H63" s="14">
         <v>2</v>
       </c>
       <c r="I63" s="36"/>
-      <c r="J63" s="78"/>
-    </row>
-    <row r="64" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="68"/>
+      <c r="J63" s="37"/>
+    </row>
+    <row r="64" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="80"/>
       <c r="B64" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="42"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="48"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="45"/>
       <c r="G64" s="36"/>
       <c r="H64" s="14">
         <v>2</v>
       </c>
       <c r="I64" s="36"/>
-      <c r="J64" s="78"/>
-    </row>
-    <row r="65" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="69"/>
+      <c r="J64" s="37"/>
+    </row>
+    <row r="65" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="81"/>
       <c r="B65" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="C65" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="42"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="48"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="45"/>
       <c r="G65" s="36"/>
       <c r="H65" s="14">
         <v>2</v>
       </c>
       <c r="I65" s="36"/>
-      <c r="J65" s="78"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="67">
+      <c r="J65" s="37"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="79">
         <v>11</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="82"/>
-      <c r="I66" s="82"/>
-      <c r="J66" s="55"/>
-    </row>
-    <row r="67" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="68"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="48"/>
+    </row>
+    <row r="67" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="80"/>
       <c r="B67" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C67" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="48"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="45"/>
       <c r="G67" s="36"/>
       <c r="H67" s="14">
         <v>2</v>
       </c>
       <c r="I67" s="36"/>
-      <c r="J67" s="78"/>
-    </row>
-    <row r="68" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="68"/>
+      <c r="J67" s="37"/>
+    </row>
+    <row r="68" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="80"/>
       <c r="B68" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="D68" s="42"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="48"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="45"/>
       <c r="G68" s="36"/>
       <c r="H68" s="14">
         <v>2</v>
       </c>
       <c r="I68" s="36"/>
-      <c r="J68" s="78"/>
-    </row>
-    <row r="69" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="68"/>
+      <c r="J68" s="37"/>
+    </row>
+    <row r="69" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="80"/>
       <c r="B69" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="41" t="s">
+      <c r="C69" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="48"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="45"/>
       <c r="G69" s="36"/>
       <c r="H69" s="14">
         <v>3</v>
       </c>
       <c r="I69" s="36"/>
-      <c r="J69" s="78"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="68"/>
+      <c r="J69" s="37"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="80"/>
       <c r="B70" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="42" t="s">
+      <c r="C70" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="42"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="48"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="45"/>
       <c r="G70" s="36"/>
       <c r="H70" s="14">
         <v>2</v>
       </c>
       <c r="I70" s="36"/>
-      <c r="J70" s="78"/>
-    </row>
-    <row r="71" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="69"/>
+      <c r="J70" s="37"/>
+    </row>
+    <row r="71" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="81"/>
       <c r="B71" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="42"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="48"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="45"/>
       <c r="G71" s="36"/>
       <c r="H71" s="14">
         <v>2</v>
       </c>
       <c r="I71" s="36"/>
-      <c r="J71" s="78"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="67">
+      <c r="J71" s="37"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="79">
         <v>12</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="82"/>
-      <c r="I72" s="82"/>
-      <c r="J72" s="55"/>
-    </row>
-    <row r="73" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="68"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="48"/>
+    </row>
+    <row r="73" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="80"/>
       <c r="B73" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="C73" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="D73" s="42"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="48"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="45"/>
       <c r="G73" s="36"/>
       <c r="H73" s="14">
         <v>2</v>
       </c>
       <c r="I73" s="36"/>
-      <c r="J73" s="78"/>
-    </row>
-    <row r="74" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="68"/>
+      <c r="J73" s="37"/>
+    </row>
+    <row r="74" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="80"/>
       <c r="B74" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C74" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="42"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="48"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="45"/>
       <c r="G74" s="36"/>
       <c r="H74" s="14">
         <v>2</v>
       </c>
       <c r="I74" s="36"/>
-      <c r="J74" s="78"/>
-    </row>
-    <row r="75" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="69"/>
+      <c r="J74" s="37"/>
+    </row>
+    <row r="75" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="81"/>
       <c r="B75" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="42"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="48"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="45"/>
       <c r="G75" s="36"/>
       <c r="H75" s="14">
         <v>2</v>
       </c>
       <c r="I75" s="36"/>
-      <c r="J75" s="78"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="67">
+      <c r="J75" s="37"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="79">
         <v>13</v>
       </c>
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="87"/>
-    </row>
-    <row r="77" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="68"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="62"/>
+    </row>
+    <row r="77" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="80"/>
       <c r="B77" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="41" t="s">
+      <c r="C77" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D77" s="41"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="48"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="45"/>
       <c r="G77" s="36"/>
       <c r="H77" s="14">
         <v>2</v>
       </c>
       <c r="I77" s="36"/>
-      <c r="J77" s="78"/>
-    </row>
-    <row r="78" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="68"/>
+      <c r="J77" s="37"/>
+    </row>
+    <row r="78" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="80"/>
       <c r="B78" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D78" s="41"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="48"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="36"/>
       <c r="H78" s="14">
         <v>2</v>
       </c>
       <c r="I78" s="36"/>
-      <c r="J78" s="78"/>
-    </row>
-    <row r="79" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="69"/>
+      <c r="J78" s="37"/>
+    </row>
+    <row r="79" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="81"/>
       <c r="B79" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="41"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="48"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="45"/>
       <c r="G79" s="36"/>
       <c r="H79" s="14">
         <v>2</v>
       </c>
       <c r="I79" s="36"/>
-      <c r="J79" s="78"/>
-    </row>
-    <row r="80" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J79" s="37"/>
+    </row>
+    <row r="80" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
         <v>14</v>
       </c>
-      <c r="B80" s="66" t="s">
+      <c r="B80" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="66"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="16"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="42"/>
       <c r="H80" s="16">
         <v>2</v>
       </c>
       <c r="I80" s="16"/>
-      <c r="J80" s="79"/>
-    </row>
-    <row r="81" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J80" s="38"/>
+    </row>
+    <row r="81" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>15</v>
       </c>
-      <c r="B81" s="65" t="s">
+      <c r="B81" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="48"/>
+      <c r="C81" s="77"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="55"/>
       <c r="G81" s="19"/>
       <c r="H81" s="19">
         <v>2</v>
       </c>
       <c r="I81" s="19"/>
-      <c r="J81" s="80"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="67">
+      <c r="J81" s="39"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="79">
         <v>16</v>
       </c>
-      <c r="B82" s="40" t="s">
+      <c r="B82" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="82"/>
-      <c r="G82" s="82"/>
-      <c r="H82" s="82"/>
-      <c r="I82" s="82"/>
-      <c r="J82" s="55"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="68"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="48"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="80"/>
       <c r="B83" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="48"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="45"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36">
         <v>2</v>
       </c>
       <c r="I83" s="36"/>
-      <c r="J83" s="78"/>
-    </row>
-    <row r="84" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="68"/>
+      <c r="J83" s="37"/>
+    </row>
+    <row r="84" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="80"/>
       <c r="B84" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="57" t="s">
+      <c r="C84" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="D84" s="57"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="48"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="45"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36">
         <v>2</v>
       </c>
       <c r="I84" s="36"/>
-      <c r="J84" s="78"/>
-    </row>
-    <row r="85" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="68"/>
+      <c r="J84" s="37"/>
+    </row>
+    <row r="85" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="80"/>
       <c r="B85" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="57" t="s">
+      <c r="C85" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="58"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="48"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="45"/>
       <c r="G85" s="36"/>
       <c r="H85" s="36">
         <v>2</v>
       </c>
       <c r="I85" s="36"/>
-      <c r="J85" s="78"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="69"/>
+      <c r="J85" s="37"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="81"/>
       <c r="B86" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="58" t="s">
+      <c r="C86" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="D86" s="58"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="48"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="45"/>
       <c r="G86" s="36"/>
       <c r="H86" s="36">
         <v>2</v>
       </c>
       <c r="I86" s="36"/>
-      <c r="J86" s="78"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="67">
+      <c r="J86" s="37"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="79">
         <v>17</v>
       </c>
-      <c r="B87" s="40" t="s">
+      <c r="B87" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="82"/>
-      <c r="I87" s="82"/>
-      <c r="J87" s="55"/>
-    </row>
-    <row r="88" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="68"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="48"/>
+    </row>
+    <row r="88" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="80"/>
       <c r="B88" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="41" t="s">
+      <c r="C88" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D88" s="41"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="48"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="45"/>
       <c r="G88" s="36"/>
       <c r="H88" s="36">
         <v>2</v>
       </c>
       <c r="I88" s="36"/>
-      <c r="J88" s="78"/>
-    </row>
-    <row r="89" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="68"/>
+      <c r="J88" s="37"/>
+    </row>
+    <row r="89" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="80"/>
       <c r="B89" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="41" t="s">
+      <c r="C89" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D89" s="41"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="48"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="45"/>
       <c r="G89" s="36"/>
       <c r="H89" s="36">
         <v>2</v>
       </c>
       <c r="I89" s="36"/>
-      <c r="J89" s="78"/>
-    </row>
-    <row r="90" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="68"/>
+      <c r="J89" s="37"/>
+    </row>
+    <row r="90" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="80"/>
       <c r="B90" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="41" t="s">
+      <c r="C90" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="D90" s="42"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="48"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="45"/>
       <c r="G90" s="36"/>
       <c r="H90" s="36">
         <v>2</v>
       </c>
       <c r="I90" s="36"/>
-      <c r="J90" s="78"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="68"/>
+      <c r="J90" s="37"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="80"/>
       <c r="B91" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="42" t="s">
+      <c r="C91" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="42"/>
-      <c r="E91" s="47"/>
-      <c r="F91" s="48"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="45"/>
       <c r="G91" s="36"/>
       <c r="H91" s="36">
         <v>2</v>
       </c>
       <c r="I91" s="36"/>
-      <c r="J91" s="78"/>
-    </row>
-    <row r="92" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="68"/>
+      <c r="J91" s="37"/>
+    </row>
+    <row r="92" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="80"/>
       <c r="B92" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="48"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="45"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36">
         <v>2</v>
       </c>
       <c r="I92" s="36"/>
-      <c r="J92" s="78"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="69"/>
+      <c r="J92" s="37"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="81"/>
       <c r="B93" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="42" t="s">
+      <c r="C93" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D93" s="42"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="48"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="45"/>
       <c r="G93" s="36"/>
       <c r="H93" s="36">
         <v>2</v>
       </c>
       <c r="I93" s="36"/>
-      <c r="J93" s="78"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="67">
+      <c r="J93" s="37"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="79">
         <v>18</v>
       </c>
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="82"/>
-      <c r="H94" s="82"/>
-      <c r="I94" s="82"/>
-      <c r="J94" s="55"/>
-    </row>
-    <row r="95" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="68"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="48"/>
+    </row>
+    <row r="95" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="80"/>
       <c r="B95" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="41" t="s">
+      <c r="C95" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D95" s="41"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="48"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="45"/>
       <c r="G95" s="36"/>
       <c r="H95" s="36">
         <v>2</v>
       </c>
       <c r="I95" s="36"/>
-      <c r="J95" s="78"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="68"/>
+      <c r="J95" s="37"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="80"/>
       <c r="B96" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="42" t="s">
+      <c r="C96" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D96" s="42"/>
-      <c r="E96" s="47"/>
-      <c r="F96" s="48"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="45"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36">
         <v>2</v>
       </c>
       <c r="I96" s="36"/>
-      <c r="J96" s="78"/>
-    </row>
-    <row r="97" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="69"/>
+      <c r="J96" s="37"/>
+    </row>
+    <row r="97" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="81"/>
       <c r="B97" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="41" t="s">
+      <c r="C97" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="41"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="48"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="45"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36">
         <v>2</v>
       </c>
       <c r="I97" s="36"/>
-      <c r="J97" s="78"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="67">
+      <c r="J97" s="37"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="79">
         <v>19</v>
       </c>
-      <c r="B98" s="40" t="s">
+      <c r="B98" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="82"/>
-      <c r="H98" s="82"/>
-      <c r="I98" s="82"/>
-      <c r="J98" s="55"/>
-    </row>
-    <row r="99" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="68"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="48"/>
+    </row>
+    <row r="99" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="80"/>
       <c r="B99" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="41" t="s">
+      <c r="C99" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="D99" s="42"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="48"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="45"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36">
         <v>2</v>
       </c>
       <c r="I99" s="36"/>
-      <c r="J99" s="78"/>
-    </row>
-    <row r="100" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="68"/>
+      <c r="J99" s="37"/>
+    </row>
+    <row r="100" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="80"/>
       <c r="B100" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="41" t="s">
+      <c r="C100" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D100" s="41"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="48"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="45"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36">
         <v>2</v>
       </c>
       <c r="I100" s="36"/>
-      <c r="J100" s="78"/>
-    </row>
-    <row r="101" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="68"/>
+      <c r="J100" s="37"/>
+    </row>
+    <row r="101" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="80"/>
       <c r="B101" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="41" t="s">
+      <c r="C101" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="41"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="48"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="45"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36">
         <v>2</v>
       </c>
       <c r="I101" s="36"/>
-      <c r="J101" s="78"/>
-    </row>
-    <row r="102" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="68"/>
+      <c r="J101" s="37"/>
+    </row>
+    <row r="102" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="80"/>
       <c r="B102" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="42" t="s">
+      <c r="C102" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D102" s="42"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="48"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="45"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36">
         <v>2</v>
       </c>
       <c r="I102" s="36"/>
-      <c r="J102" s="78"/>
-    </row>
-    <row r="103" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="69"/>
+      <c r="J102" s="37"/>
+    </row>
+    <row r="103" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="81"/>
       <c r="B103" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="41" t="s">
+      <c r="C103" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D103" s="42"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="48"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="45"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36">
         <v>2</v>
       </c>
       <c r="I103" s="36"/>
-      <c r="J103" s="78"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="67">
+      <c r="J103" s="37"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="79">
         <v>20</v>
       </c>
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="82"/>
-      <c r="H104" s="82"/>
-      <c r="I104" s="82"/>
-      <c r="J104" s="55"/>
-    </row>
-    <row r="105" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="68"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="47"/>
+      <c r="I104" s="47"/>
+      <c r="J104" s="48"/>
+    </row>
+    <row r="105" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="80"/>
       <c r="B105" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D105" s="42"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="48"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="45"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36">
         <v>2</v>
       </c>
       <c r="I105" s="36"/>
-      <c r="J105" s="78"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="68"/>
+      <c r="J105" s="37"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="80"/>
       <c r="B106" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="42" t="s">
+      <c r="C106" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D106" s="42"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="48"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="45"/>
       <c r="G106" s="36"/>
       <c r="H106" s="36">
         <v>2</v>
       </c>
       <c r="I106" s="36"/>
-      <c r="J106" s="78"/>
-    </row>
-    <row r="107" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="69"/>
+      <c r="J106" s="37"/>
+    </row>
+    <row r="107" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="81"/>
       <c r="B107" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C107" s="41" t="s">
+      <c r="C107" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D107" s="41"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="48"/>
+      <c r="D107" s="49"/>
+      <c r="E107" s="44"/>
+      <c r="F107" s="45"/>
       <c r="G107" s="36"/>
       <c r="H107" s="36">
         <v>2</v>
       </c>
       <c r="I107" s="36"/>
-      <c r="J107" s="78"/>
-    </row>
-    <row r="108" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="75">
+      <c r="J107" s="37"/>
+    </row>
+    <row r="108" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="87">
         <v>21</v>
       </c>
-      <c r="B108" s="55" t="s">
+      <c r="B108" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C108" s="55"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="82"/>
-      <c r="F108" s="82"/>
-      <c r="G108" s="82"/>
-      <c r="H108" s="82"/>
-      <c r="I108" s="82"/>
-      <c r="J108" s="55"/>
-    </row>
-    <row r="109" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="76"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="47"/>
+      <c r="I108" s="47"/>
+      <c r="J108" s="48"/>
+    </row>
+    <row r="109" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="88"/>
       <c r="B109" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="41" t="s">
+      <c r="C109" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="D109" s="42"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="48"/>
+      <c r="D109" s="50"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="45"/>
       <c r="G109" s="36"/>
       <c r="H109" s="36">
         <v>2</v>
       </c>
       <c r="I109" s="36"/>
-      <c r="J109" s="78"/>
-    </row>
-    <row r="110" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="77"/>
+      <c r="J109" s="37"/>
+    </row>
+    <row r="110" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="89"/>
       <c r="B110" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="41" t="s">
+      <c r="C110" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="D110" s="42"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="48"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="45"/>
       <c r="G110" s="36"/>
       <c r="H110" s="36">
         <v>2</v>
       </c>
       <c r="I110" s="36"/>
-      <c r="J110" s="78"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="67">
+      <c r="J110" s="37"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="79">
         <v>22</v>
       </c>
-      <c r="B111" s="40" t="s">
+      <c r="B111" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="82"/>
-      <c r="F111" s="82"/>
-      <c r="G111" s="82"/>
-      <c r="H111" s="82"/>
-      <c r="I111" s="82"/>
-      <c r="J111" s="55"/>
-    </row>
-    <row r="112" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="68"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="48"/>
+    </row>
+    <row r="112" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="80"/>
       <c r="B112" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="41" t="s">
+      <c r="C112" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="D112" s="41"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="48"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="45"/>
       <c r="G112" s="36"/>
       <c r="H112" s="36">
         <v>2</v>
       </c>
       <c r="I112" s="36"/>
-      <c r="J112" s="78"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="69"/>
+      <c r="J112" s="37"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="81"/>
       <c r="B113" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="42" t="s">
+      <c r="C113" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D113" s="42"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="48"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="44"/>
+      <c r="F113" s="45"/>
       <c r="G113" s="36"/>
       <c r="H113" s="36">
         <v>2</v>
       </c>
       <c r="I113" s="36"/>
-      <c r="J113" s="78"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="67">
+      <c r="J113" s="37"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="79">
         <v>23</v>
       </c>
-      <c r="B114" s="40" t="s">
+      <c r="B114" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C114" s="40"/>
-      <c r="D114" s="40"/>
-      <c r="E114" s="82"/>
-      <c r="F114" s="82"/>
-      <c r="G114" s="82"/>
-      <c r="H114" s="82"/>
-      <c r="I114" s="82"/>
-      <c r="J114" s="55"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="68"/>
-      <c r="B115" s="43" t="s">
+      <c r="C114" s="46"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="47"/>
+      <c r="H114" s="47"/>
+      <c r="I114" s="47"/>
+      <c r="J114" s="48"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="80"/>
+      <c r="B115" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="84"/>
-      <c r="F115" s="84"/>
-      <c r="G115" s="84"/>
-      <c r="H115" s="84"/>
-      <c r="I115" s="84"/>
-      <c r="J115" s="88"/>
-    </row>
-    <row r="116" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="68"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="52"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="52"/>
+      <c r="I115" s="52"/>
+      <c r="J115" s="53"/>
+    </row>
+    <row r="116" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="80"/>
       <c r="B116" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C116" s="41" t="s">
+      <c r="C116" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="D116" s="42"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="48"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="45"/>
       <c r="G116" s="36"/>
       <c r="H116" s="36">
         <v>2</v>
       </c>
       <c r="I116" s="36"/>
-      <c r="J116" s="78"/>
-    </row>
-    <row r="117" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="68"/>
+      <c r="J116" s="37"/>
+    </row>
+    <row r="117" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="80"/>
       <c r="B117" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="41" t="s">
+      <c r="C117" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D117" s="41"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="48"/>
+      <c r="D117" s="49"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="45"/>
       <c r="G117" s="36"/>
       <c r="H117" s="36">
         <v>2</v>
       </c>
       <c r="I117" s="36"/>
-      <c r="J117" s="78"/>
-    </row>
-    <row r="118" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="68"/>
+      <c r="J117" s="37"/>
+    </row>
+    <row r="118" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="80"/>
       <c r="B118" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="41" t="s">
+      <c r="C118" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D118" s="41"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="48"/>
+      <c r="D118" s="49"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="45"/>
       <c r="G118" s="36"/>
       <c r="H118" s="36">
         <v>2</v>
       </c>
       <c r="I118" s="36"/>
-      <c r="J118" s="78"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="68"/>
+      <c r="J118" s="37"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="80"/>
       <c r="B119" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="42" t="s">
+      <c r="C119" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="D119" s="42"/>
-      <c r="E119" s="47"/>
-      <c r="F119" s="48"/>
+      <c r="D119" s="50"/>
+      <c r="E119" s="44"/>
+      <c r="F119" s="45"/>
       <c r="G119" s="36"/>
       <c r="H119" s="36">
         <v>2</v>
       </c>
       <c r="I119" s="36"/>
-      <c r="J119" s="78"/>
-    </row>
-    <row r="120" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="68"/>
+      <c r="J119" s="37"/>
+    </row>
+    <row r="120" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="80"/>
       <c r="B120" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="41" t="s">
+      <c r="C120" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="D120" s="41"/>
-      <c r="E120" s="47"/>
-      <c r="F120" s="48"/>
+      <c r="D120" s="49"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="45"/>
       <c r="G120" s="36"/>
       <c r="H120" s="36">
         <v>2</v>
       </c>
       <c r="I120" s="36"/>
-      <c r="J120" s="78"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="68"/>
-      <c r="B121" s="43" t="s">
+      <c r="J120" s="37"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="80"/>
+      <c r="B121" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="C121" s="43"/>
-      <c r="D121" s="43"/>
-      <c r="E121" s="84"/>
-      <c r="F121" s="84"/>
-      <c r="G121" s="84"/>
-      <c r="H121" s="84"/>
-      <c r="I121" s="84"/>
-      <c r="J121" s="88"/>
-    </row>
-    <row r="122" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="68"/>
+      <c r="C121" s="51"/>
+      <c r="D121" s="51"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="52"/>
+      <c r="G121" s="52"/>
+      <c r="H121" s="52"/>
+      <c r="I121" s="52"/>
+      <c r="J121" s="53"/>
+    </row>
+    <row r="122" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="80"/>
       <c r="B122" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="41" t="s">
+      <c r="C122" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="D122" s="42"/>
-      <c r="E122" s="47"/>
-      <c r="F122" s="48"/>
+      <c r="D122" s="50"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="45"/>
       <c r="G122" s="36"/>
       <c r="H122" s="36">
         <v>2</v>
       </c>
       <c r="I122" s="36"/>
-      <c r="J122" s="78"/>
-    </row>
-    <row r="123" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="68"/>
+      <c r="J122" s="37"/>
+    </row>
+    <row r="123" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="80"/>
       <c r="B123" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="41" t="s">
+      <c r="C123" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D123" s="41"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="48"/>
+      <c r="D123" s="49"/>
+      <c r="E123" s="44"/>
+      <c r="F123" s="45"/>
       <c r="G123" s="36"/>
       <c r="H123" s="36">
         <v>2</v>
       </c>
       <c r="I123" s="36"/>
-      <c r="J123" s="78"/>
-    </row>
-    <row r="124" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="69"/>
+      <c r="J123" s="37"/>
+    </row>
+    <row r="124" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="81"/>
       <c r="B124" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C124" s="41" t="s">
+      <c r="C124" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D124" s="41"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="48"/>
+      <c r="D124" s="49"/>
+      <c r="E124" s="44"/>
+      <c r="F124" s="45"/>
       <c r="G124" s="36"/>
       <c r="H124" s="36">
         <v>2</v>
       </c>
       <c r="I124" s="36"/>
-      <c r="J124" s="78"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="67">
+      <c r="J124" s="37"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="79">
         <v>24</v>
       </c>
-      <c r="B125" s="40" t="s">
+      <c r="B125" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C125" s="40"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="82"/>
-      <c r="F125" s="82"/>
-      <c r="G125" s="82"/>
-      <c r="H125" s="82"/>
-      <c r="I125" s="82"/>
-      <c r="J125" s="55"/>
-    </row>
-    <row r="126" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="68"/>
+      <c r="C125" s="46"/>
+      <c r="D125" s="46"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="47"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
+      <c r="I125" s="47"/>
+      <c r="J125" s="48"/>
+    </row>
+    <row r="126" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="80"/>
       <c r="B126" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="41" t="s">
+      <c r="C126" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D126" s="41"/>
-      <c r="E126" s="47"/>
-      <c r="F126" s="48"/>
+      <c r="D126" s="49"/>
+      <c r="E126" s="44"/>
+      <c r="F126" s="45"/>
       <c r="G126" s="36"/>
       <c r="H126" s="36">
         <v>2</v>
       </c>
       <c r="I126" s="36"/>
-      <c r="J126" s="78"/>
-    </row>
-    <row r="127" spans="1:10" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="68"/>
+      <c r="J126" s="37"/>
+    </row>
+    <row r="127" spans="1:10" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="80"/>
       <c r="B127" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C127" s="41" t="s">
+      <c r="C127" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D127" s="41"/>
-      <c r="E127" s="47"/>
-      <c r="F127" s="48"/>
+      <c r="D127" s="49"/>
+      <c r="E127" s="44"/>
+      <c r="F127" s="45"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11">
         <v>2</v>
       </c>
       <c r="I127" s="11"/>
-      <c r="J127" s="81"/>
-    </row>
-    <row r="128" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="69"/>
+      <c r="J127" s="40"/>
+    </row>
+    <row r="128" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="81"/>
       <c r="B128" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C128" s="41" t="s">
+      <c r="C128" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D128" s="41"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="48"/>
+      <c r="D128" s="49"/>
+      <c r="E128" s="44"/>
+      <c r="F128" s="45"/>
       <c r="G128" s="36"/>
       <c r="H128" s="36">
         <v>2</v>
       </c>
       <c r="I128" s="36"/>
-      <c r="J128" s="78"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="67">
+      <c r="J128" s="37"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="79">
         <v>25</v>
       </c>
-      <c r="B129" s="40" t="s">
+      <c r="B129" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C129" s="40"/>
-      <c r="D129" s="40"/>
-      <c r="E129" s="82"/>
-      <c r="F129" s="82"/>
-      <c r="G129" s="82"/>
-      <c r="H129" s="82"/>
-      <c r="I129" s="82"/>
-      <c r="J129" s="55"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="68"/>
-      <c r="B130" s="43" t="s">
+      <c r="C129" s="46"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="47"/>
+      <c r="J129" s="48"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="80"/>
+      <c r="B130" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C130" s="43"/>
-      <c r="D130" s="43"/>
-      <c r="E130" s="84"/>
-      <c r="F130" s="84"/>
-      <c r="G130" s="84"/>
-      <c r="H130" s="84"/>
-      <c r="I130" s="84"/>
-      <c r="J130" s="88"/>
-    </row>
-    <row r="131" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="68"/>
+      <c r="C130" s="51"/>
+      <c r="D130" s="51"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="52"/>
+      <c r="G130" s="52"/>
+      <c r="H130" s="52"/>
+      <c r="I130" s="52"/>
+      <c r="J130" s="53"/>
+    </row>
+    <row r="131" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="80"/>
       <c r="B131" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C131" s="41" t="s">
+      <c r="C131" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="D131" s="42"/>
-      <c r="E131" s="47"/>
-      <c r="F131" s="48"/>
+      <c r="D131" s="50"/>
+      <c r="E131" s="44"/>
+      <c r="F131" s="45"/>
       <c r="G131" s="36"/>
       <c r="H131" s="36">
         <v>2</v>
       </c>
       <c r="I131" s="36"/>
-      <c r="J131" s="78"/>
-    </row>
-    <row r="132" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="68"/>
+      <c r="J131" s="37"/>
+    </row>
+    <row r="132" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="80"/>
       <c r="B132" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C132" s="41" t="s">
+      <c r="C132" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D132" s="41"/>
-      <c r="E132" s="47"/>
-      <c r="F132" s="48"/>
+      <c r="D132" s="49"/>
+      <c r="E132" s="44"/>
+      <c r="F132" s="45"/>
       <c r="G132" s="36"/>
       <c r="H132" s="36">
         <v>2</v>
       </c>
       <c r="I132" s="36"/>
-      <c r="J132" s="78"/>
-    </row>
-    <row r="133" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="68"/>
+      <c r="J132" s="37"/>
+    </row>
+    <row r="133" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="80"/>
       <c r="B133" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C133" s="41" t="s">
+      <c r="C133" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="D133" s="41"/>
-      <c r="E133" s="47"/>
-      <c r="F133" s="48"/>
+      <c r="D133" s="49"/>
+      <c r="E133" s="44"/>
+      <c r="F133" s="45"/>
       <c r="G133" s="36"/>
       <c r="H133" s="36">
         <v>2</v>
       </c>
       <c r="I133" s="36"/>
-      <c r="J133" s="78"/>
-    </row>
-    <row r="134" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="68"/>
+      <c r="J133" s="37"/>
+    </row>
+    <row r="134" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="80"/>
       <c r="B134" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C134" s="41" t="s">
+      <c r="C134" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D134" s="41"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="48"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="44"/>
+      <c r="F134" s="45"/>
       <c r="G134" s="36"/>
       <c r="H134" s="36">
         <v>2</v>
       </c>
       <c r="I134" s="36"/>
-      <c r="J134" s="78"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="68"/>
+      <c r="J134" s="37"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="80"/>
       <c r="B135" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C135" s="42" t="s">
+      <c r="C135" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="D135" s="42"/>
-      <c r="E135" s="47"/>
-      <c r="F135" s="48"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="44"/>
+      <c r="F135" s="45"/>
       <c r="G135" s="36"/>
       <c r="H135" s="36">
         <v>2</v>
       </c>
       <c r="I135" s="36"/>
-      <c r="J135" s="78"/>
-    </row>
-    <row r="136" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="68"/>
+      <c r="J135" s="37"/>
+    </row>
+    <row r="136" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="80"/>
       <c r="B136" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C136" s="42" t="s">
+      <c r="C136" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="D136" s="42"/>
-      <c r="E136" s="47"/>
-      <c r="F136" s="48"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="44"/>
+      <c r="F136" s="45"/>
       <c r="G136" s="36"/>
       <c r="H136" s="36">
         <v>2</v>
       </c>
       <c r="I136" s="36"/>
-      <c r="J136" s="78"/>
-    </row>
-    <row r="137" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="68"/>
+      <c r="J136" s="37"/>
+    </row>
+    <row r="137" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="80"/>
       <c r="B137" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="41" t="s">
+      <c r="C137" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="D137" s="41"/>
-      <c r="E137" s="47"/>
-      <c r="F137" s="48"/>
+      <c r="D137" s="49"/>
+      <c r="E137" s="44"/>
+      <c r="F137" s="45"/>
       <c r="G137" s="36"/>
       <c r="H137" s="36">
         <v>2</v>
       </c>
       <c r="I137" s="36"/>
-      <c r="J137" s="78"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="68"/>
-      <c r="B138" s="43" t="s">
+      <c r="J137" s="37"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="80"/>
+      <c r="B138" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="C138" s="43"/>
-      <c r="D138" s="43"/>
-      <c r="E138" s="84"/>
-      <c r="F138" s="84"/>
-      <c r="G138" s="84"/>
-      <c r="H138" s="84"/>
-      <c r="I138" s="84"/>
-      <c r="J138" s="88"/>
-    </row>
-    <row r="139" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="68"/>
+      <c r="C138" s="51"/>
+      <c r="D138" s="51"/>
+      <c r="E138" s="52"/>
+      <c r="F138" s="52"/>
+      <c r="G138" s="52"/>
+      <c r="H138" s="52"/>
+      <c r="I138" s="52"/>
+      <c r="J138" s="53"/>
+    </row>
+    <row r="139" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="80"/>
       <c r="B139" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="41" t="s">
+      <c r="C139" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="D139" s="42"/>
-      <c r="E139" s="47"/>
-      <c r="F139" s="48"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="44"/>
+      <c r="F139" s="45"/>
       <c r="G139" s="36"/>
       <c r="H139" s="36">
         <v>2</v>
       </c>
       <c r="I139" s="36"/>
-      <c r="J139" s="78"/>
-    </row>
-    <row r="140" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="68"/>
+      <c r="J139" s="37"/>
+    </row>
+    <row r="140" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="80"/>
       <c r="B140" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="41" t="s">
+      <c r="C140" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="D140" s="42"/>
-      <c r="E140" s="47"/>
-      <c r="F140" s="48"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="44"/>
+      <c r="F140" s="45"/>
       <c r="G140" s="36"/>
       <c r="H140" s="36">
         <v>2</v>
       </c>
       <c r="I140" s="36"/>
-      <c r="J140" s="78"/>
-    </row>
-    <row r="141" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="68"/>
+      <c r="J140" s="37"/>
+    </row>
+    <row r="141" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="80"/>
       <c r="B141" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C141" s="41" t="s">
+      <c r="C141" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="D141" s="42"/>
-      <c r="E141" s="47"/>
-      <c r="F141" s="48"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="44"/>
+      <c r="F141" s="45"/>
       <c r="G141" s="36"/>
       <c r="H141" s="36">
         <v>2</v>
       </c>
       <c r="I141" s="36"/>
-      <c r="J141" s="78"/>
-    </row>
-    <row r="142" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="68"/>
+      <c r="J141" s="37"/>
+    </row>
+    <row r="142" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="80"/>
       <c r="B142" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C142" s="41" t="s">
+      <c r="C142" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D142" s="41"/>
-      <c r="E142" s="47"/>
-      <c r="F142" s="48"/>
+      <c r="D142" s="49"/>
+      <c r="E142" s="44"/>
+      <c r="F142" s="45"/>
       <c r="G142" s="36"/>
       <c r="H142" s="36">
         <v>2</v>
       </c>
       <c r="I142" s="36"/>
-      <c r="J142" s="78"/>
-    </row>
-    <row r="143" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="68"/>
+      <c r="J142" s="37"/>
+    </row>
+    <row r="143" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="80"/>
       <c r="B143" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C143" s="41" t="s">
+      <c r="C143" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D143" s="41"/>
-      <c r="E143" s="47"/>
-      <c r="F143" s="48"/>
+      <c r="D143" s="49"/>
+      <c r="E143" s="44"/>
+      <c r="F143" s="45"/>
       <c r="G143" s="36"/>
       <c r="H143" s="36">
         <v>2</v>
       </c>
       <c r="I143" s="36"/>
-      <c r="J143" s="78"/>
-    </row>
-    <row r="144" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="68"/>
+      <c r="J143" s="37"/>
+    </row>
+    <row r="144" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="80"/>
       <c r="B144" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="41" t="s">
+      <c r="C144" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D144" s="42"/>
-      <c r="E144" s="47"/>
-      <c r="F144" s="48"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="44"/>
+      <c r="F144" s="45"/>
       <c r="G144" s="36"/>
       <c r="H144" s="36">
         <v>2</v>
       </c>
       <c r="I144" s="36"/>
-      <c r="J144" s="78"/>
-    </row>
-    <row r="145" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="68"/>
+      <c r="J144" s="37"/>
+    </row>
+    <row r="145" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="80"/>
       <c r="B145" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C145" s="41" t="s">
+      <c r="C145" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D145" s="42"/>
-      <c r="E145" s="47"/>
-      <c r="F145" s="48"/>
+      <c r="D145" s="50"/>
+      <c r="E145" s="44"/>
+      <c r="F145" s="45"/>
       <c r="G145" s="36"/>
       <c r="H145" s="36">
         <v>2</v>
       </c>
       <c r="I145" s="36"/>
-      <c r="J145" s="78"/>
-    </row>
-    <row r="146" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="68"/>
+      <c r="J145" s="37"/>
+    </row>
+    <row r="146" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="80"/>
       <c r="B146" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="41" t="s">
+      <c r="C146" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D146" s="42"/>
-      <c r="E146" s="47"/>
-      <c r="F146" s="48"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="44"/>
+      <c r="F146" s="45"/>
       <c r="G146" s="36"/>
       <c r="H146" s="36">
         <v>2</v>
       </c>
       <c r="I146" s="36"/>
-      <c r="J146" s="78"/>
-    </row>
-    <row r="147" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="69"/>
+      <c r="J146" s="37"/>
+    </row>
+    <row r="147" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="81"/>
       <c r="B147" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="41" t="s">
+      <c r="C147" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="D147" s="42"/>
-      <c r="E147" s="47"/>
-      <c r="F147" s="48"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="44"/>
+      <c r="F147" s="45"/>
       <c r="G147" s="36"/>
       <c r="H147" s="36">
         <v>2</v>
       </c>
       <c r="I147" s="36"/>
-      <c r="J147" s="78"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J147" s="37"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>26</v>
       </c>
-      <c r="B148" s="40" t="s">
+      <c r="B148" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C148" s="40"/>
-      <c r="D148" s="40"/>
-      <c r="E148" s="82"/>
-      <c r="F148" s="82"/>
-      <c r="G148" s="82"/>
-      <c r="H148" s="82"/>
-      <c r="I148" s="82"/>
-      <c r="J148" s="55"/>
-    </row>
-    <row r="149" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C148" s="46"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="47"/>
+      <c r="F148" s="47"/>
+      <c r="G148" s="47"/>
+      <c r="H148" s="47"/>
+      <c r="I148" s="47"/>
+      <c r="J148" s="48"/>
+    </row>
+    <row r="149" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C149" s="41" t="s">
+      <c r="C149" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="D149" s="41"/>
-      <c r="E149" s="47"/>
-      <c r="F149" s="48"/>
+      <c r="D149" s="49"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="45"/>
       <c r="G149" s="36"/>
       <c r="H149" s="36">
         <v>2</v>
       </c>
       <c r="I149" s="36"/>
-      <c r="J149" s="78"/>
-    </row>
-    <row r="150" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J149" s="37"/>
+    </row>
+    <row r="150" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
       <c r="B150" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C150" s="41" t="s">
+      <c r="C150" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="D150" s="41"/>
-      <c r="E150" s="47"/>
-      <c r="F150" s="48"/>
+      <c r="D150" s="49"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="45"/>
       <c r="G150" s="36"/>
       <c r="H150" s="36">
         <v>2</v>
       </c>
       <c r="I150" s="36"/>
-      <c r="J150" s="78"/>
-    </row>
-    <row r="151" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J150" s="37"/>
+    </row>
+    <row r="151" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C151" s="41" t="s">
+      <c r="C151" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D151" s="41"/>
-      <c r="E151" s="47"/>
-      <c r="F151" s="48"/>
+      <c r="D151" s="49"/>
+      <c r="E151" s="44"/>
+      <c r="F151" s="45"/>
       <c r="G151" s="36"/>
       <c r="H151" s="36">
         <v>2</v>
       </c>
       <c r="I151" s="36"/>
-      <c r="J151" s="78"/>
-    </row>
-    <row r="152" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J151" s="37"/>
+    </row>
+    <row r="152" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C152" s="41" t="s">
+      <c r="C152" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="D152" s="42"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="48"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="44"/>
+      <c r="F152" s="45"/>
       <c r="G152" s="36"/>
       <c r="H152" s="36">
         <v>2</v>
       </c>
       <c r="I152" s="36"/>
-      <c r="J152" s="78"/>
-    </row>
-    <row r="153" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="67">
+      <c r="J152" s="37"/>
+    </row>
+    <row r="153" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="79">
         <v>27</v>
       </c>
-      <c r="B153" s="56" t="s">
+      <c r="B153" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="C153" s="56"/>
-      <c r="D153" s="56"/>
-      <c r="E153" s="85"/>
-      <c r="F153" s="85"/>
-      <c r="G153" s="85"/>
-      <c r="H153" s="85"/>
-      <c r="I153" s="85"/>
-      <c r="J153" s="89"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="68"/>
-      <c r="B154" s="43" t="s">
+      <c r="C153" s="66"/>
+      <c r="D153" s="66"/>
+      <c r="E153" s="67"/>
+      <c r="F153" s="67"/>
+      <c r="G153" s="67"/>
+      <c r="H153" s="67"/>
+      <c r="I153" s="67"/>
+      <c r="J153" s="68"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="80"/>
+      <c r="B154" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C154" s="43"/>
-      <c r="D154" s="43"/>
-      <c r="E154" s="84"/>
-      <c r="F154" s="84"/>
-      <c r="G154" s="84"/>
-      <c r="H154" s="84"/>
-      <c r="I154" s="84"/>
-      <c r="J154" s="88"/>
-    </row>
-    <row r="155" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="68"/>
+      <c r="C154" s="51"/>
+      <c r="D154" s="51"/>
+      <c r="E154" s="52"/>
+      <c r="F154" s="52"/>
+      <c r="G154" s="52"/>
+      <c r="H154" s="52"/>
+      <c r="I154" s="52"/>
+      <c r="J154" s="53"/>
+    </row>
+    <row r="155" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="80"/>
       <c r="B155" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="41" t="s">
+      <c r="C155" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="D155" s="42"/>
-      <c r="E155" s="47"/>
-      <c r="F155" s="48"/>
+      <c r="D155" s="50"/>
+      <c r="E155" s="44"/>
+      <c r="F155" s="45"/>
       <c r="G155" s="36"/>
       <c r="H155" s="36">
         <v>2</v>
       </c>
       <c r="I155" s="36"/>
-      <c r="J155" s="78"/>
-    </row>
-    <row r="156" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="68"/>
+      <c r="J155" s="37"/>
+    </row>
+    <row r="156" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="80"/>
       <c r="B156" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C156" s="41" t="s">
+      <c r="C156" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D156" s="42"/>
-      <c r="E156" s="47"/>
-      <c r="F156" s="48"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="44"/>
+      <c r="F156" s="45"/>
       <c r="G156" s="36"/>
       <c r="H156" s="36">
         <v>2</v>
       </c>
       <c r="I156" s="36"/>
-      <c r="J156" s="78"/>
-    </row>
-    <row r="157" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="68"/>
+      <c r="J156" s="37"/>
+    </row>
+    <row r="157" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="80"/>
       <c r="B157" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C157" s="41" t="s">
+      <c r="C157" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="D157" s="42"/>
-      <c r="E157" s="47"/>
-      <c r="F157" s="48"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="44"/>
+      <c r="F157" s="45"/>
       <c r="G157" s="36"/>
       <c r="H157" s="36">
         <v>2</v>
       </c>
       <c r="I157" s="36"/>
-      <c r="J157" s="78"/>
-    </row>
-    <row r="158" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="68"/>
+      <c r="J157" s="37"/>
+    </row>
+    <row r="158" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="80"/>
       <c r="B158" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C158" s="41" t="s">
+      <c r="C158" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="D158" s="42"/>
-      <c r="E158" s="47"/>
-      <c r="F158" s="48"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="44"/>
+      <c r="F158" s="45"/>
       <c r="G158" s="36"/>
       <c r="H158" s="36">
         <v>2</v>
       </c>
       <c r="I158" s="36"/>
-      <c r="J158" s="78"/>
-    </row>
-    <row r="159" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="68"/>
+      <c r="J158" s="37"/>
+    </row>
+    <row r="159" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="80"/>
       <c r="B159" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C159" s="41" t="s">
+      <c r="C159" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D159" s="41"/>
-      <c r="E159" s="47"/>
-      <c r="F159" s="48"/>
+      <c r="D159" s="49"/>
+      <c r="E159" s="44"/>
+      <c r="F159" s="45"/>
       <c r="G159" s="36"/>
       <c r="H159" s="36">
         <v>2</v>
       </c>
       <c r="I159" s="36"/>
-      <c r="J159" s="78"/>
-    </row>
-    <row r="160" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="68"/>
+      <c r="J159" s="37"/>
+    </row>
+    <row r="160" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="80"/>
       <c r="B160" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="41" t="s">
+      <c r="C160" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="D160" s="42"/>
-      <c r="E160" s="47"/>
-      <c r="F160" s="48"/>
+      <c r="D160" s="50"/>
+      <c r="E160" s="44"/>
+      <c r="F160" s="45"/>
       <c r="G160" s="36"/>
       <c r="H160" s="36">
         <v>2</v>
       </c>
       <c r="I160" s="36"/>
-      <c r="J160" s="78"/>
-    </row>
-    <row r="161" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="68"/>
+      <c r="J160" s="37"/>
+    </row>
+    <row r="161" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="80"/>
       <c r="B161" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="41" t="s">
+      <c r="C161" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="D161" s="41"/>
-      <c r="E161" s="47"/>
-      <c r="F161" s="48"/>
+      <c r="D161" s="49"/>
+      <c r="E161" s="44"/>
+      <c r="F161" s="45"/>
       <c r="G161" s="36"/>
       <c r="H161" s="36">
         <v>2</v>
       </c>
       <c r="I161" s="36"/>
-      <c r="J161" s="78"/>
-    </row>
-    <row r="162" spans="1:10" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="68"/>
+      <c r="J161" s="37"/>
+    </row>
+    <row r="162" spans="1:10" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="80"/>
       <c r="B162" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="41" t="s">
+      <c r="C162" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="D162" s="41"/>
-      <c r="E162" s="47"/>
-      <c r="F162" s="48"/>
+      <c r="D162" s="49"/>
+      <c r="E162" s="44"/>
+      <c r="F162" s="45"/>
       <c r="G162" s="11"/>
       <c r="H162" s="11">
         <v>2</v>
       </c>
       <c r="I162" s="11"/>
-      <c r="J162" s="81"/>
-    </row>
-    <row r="163" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="68"/>
+      <c r="J162" s="40"/>
+    </row>
+    <row r="163" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="80"/>
       <c r="B163" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C163" s="41" t="s">
+      <c r="C163" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="D163" s="41"/>
-      <c r="E163" s="47"/>
-      <c r="F163" s="48"/>
+      <c r="D163" s="49"/>
+      <c r="E163" s="44"/>
+      <c r="F163" s="45"/>
       <c r="G163" s="36"/>
       <c r="H163" s="36">
         <v>2</v>
       </c>
       <c r="I163" s="36"/>
-      <c r="J163" s="78"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" s="68"/>
-      <c r="B164" s="43" t="s">
+      <c r="J163" s="37"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="80"/>
+      <c r="B164" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C164" s="43"/>
-      <c r="D164" s="43"/>
-      <c r="E164" s="84"/>
-      <c r="F164" s="84"/>
-      <c r="G164" s="84"/>
-      <c r="H164" s="84"/>
-      <c r="I164" s="84"/>
-      <c r="J164" s="88"/>
-    </row>
-    <row r="165" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="68"/>
+      <c r="C164" s="51"/>
+      <c r="D164" s="51"/>
+      <c r="E164" s="52"/>
+      <c r="F164" s="52"/>
+      <c r="G164" s="52"/>
+      <c r="H164" s="52"/>
+      <c r="I164" s="52"/>
+      <c r="J164" s="53"/>
+    </row>
+    <row r="165" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="80"/>
       <c r="B165" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C165" s="41" t="s">
+      <c r="C165" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="42"/>
-      <c r="E165" s="47"/>
-      <c r="F165" s="48"/>
+      <c r="D165" s="50"/>
+      <c r="E165" s="44"/>
+      <c r="F165" s="45"/>
       <c r="G165" s="36"/>
       <c r="H165" s="36">
         <v>2</v>
       </c>
       <c r="I165" s="36"/>
-      <c r="J165" s="78"/>
-    </row>
-    <row r="166" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="68"/>
+      <c r="J165" s="37"/>
+    </row>
+    <row r="166" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="80"/>
       <c r="B166" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="41" t="s">
+      <c r="C166" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="D166" s="41"/>
-      <c r="E166" s="47"/>
-      <c r="F166" s="48"/>
+      <c r="D166" s="49"/>
+      <c r="E166" s="44"/>
+      <c r="F166" s="45"/>
       <c r="G166" s="36"/>
       <c r="H166" s="36">
         <v>2</v>
       </c>
       <c r="I166" s="36"/>
-      <c r="J166" s="78"/>
-    </row>
-    <row r="167" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="68"/>
+      <c r="J166" s="37"/>
+    </row>
+    <row r="167" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="80"/>
       <c r="B167" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C167" s="41" t="s">
+      <c r="C167" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="D167" s="41"/>
-      <c r="E167" s="47"/>
-      <c r="F167" s="48"/>
+      <c r="D167" s="49"/>
+      <c r="E167" s="44"/>
+      <c r="F167" s="45"/>
       <c r="G167" s="36"/>
       <c r="H167" s="36">
         <v>2</v>
       </c>
       <c r="I167" s="36"/>
-      <c r="J167" s="78"/>
-    </row>
-    <row r="168" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="68"/>
+      <c r="J167" s="37"/>
+    </row>
+    <row r="168" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="80"/>
       <c r="B168" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C168" s="41" t="s">
+      <c r="C168" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D168" s="41"/>
-      <c r="E168" s="47"/>
-      <c r="F168" s="48"/>
+      <c r="D168" s="49"/>
+      <c r="E168" s="44"/>
+      <c r="F168" s="45"/>
       <c r="G168" s="36"/>
       <c r="H168" s="36">
         <v>2</v>
       </c>
       <c r="I168" s="36"/>
-      <c r="J168" s="78"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169" s="68"/>
-      <c r="B169" s="43" t="s">
+      <c r="J168" s="37"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="80"/>
+      <c r="B169" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C169" s="43"/>
-      <c r="D169" s="43"/>
-      <c r="E169" s="84"/>
-      <c r="F169" s="84"/>
-      <c r="G169" s="84"/>
-      <c r="H169" s="84"/>
-      <c r="I169" s="84"/>
-      <c r="J169" s="88"/>
-    </row>
-    <row r="170" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="68"/>
+      <c r="C169" s="51"/>
+      <c r="D169" s="51"/>
+      <c r="E169" s="52"/>
+      <c r="F169" s="52"/>
+      <c r="G169" s="52"/>
+      <c r="H169" s="52"/>
+      <c r="I169" s="52"/>
+      <c r="J169" s="53"/>
+    </row>
+    <row r="170" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="80"/>
       <c r="B170" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C170" s="41" t="s">
+      <c r="C170" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="D170" s="42"/>
-      <c r="E170" s="47"/>
-      <c r="F170" s="48"/>
+      <c r="D170" s="50"/>
+      <c r="E170" s="44"/>
+      <c r="F170" s="45"/>
       <c r="G170" s="36"/>
       <c r="H170" s="36">
         <v>2</v>
       </c>
       <c r="I170" s="36"/>
-      <c r="J170" s="78"/>
-    </row>
-    <row r="171" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="68"/>
+      <c r="J170" s="37"/>
+    </row>
+    <row r="171" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="80"/>
       <c r="B171" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C171" s="41" t="s">
+      <c r="C171" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="D171" s="41"/>
-      <c r="E171" s="47"/>
-      <c r="F171" s="48"/>
+      <c r="D171" s="49"/>
+      <c r="E171" s="44"/>
+      <c r="F171" s="45"/>
       <c r="G171" s="36"/>
       <c r="H171" s="36">
         <v>2</v>
       </c>
       <c r="I171" s="36"/>
-      <c r="J171" s="78"/>
-    </row>
-    <row r="172" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="69"/>
+      <c r="J171" s="37"/>
+    </row>
+    <row r="172" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="81"/>
       <c r="B172" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C172" s="41" t="s">
+      <c r="C172" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D172" s="41"/>
-      <c r="E172" s="47"/>
-      <c r="F172" s="48"/>
+      <c r="D172" s="49"/>
+      <c r="E172" s="44"/>
+      <c r="F172" s="45"/>
       <c r="G172" s="36"/>
       <c r="H172" s="36">
         <v>2</v>
       </c>
       <c r="I172" s="36"/>
-      <c r="J172" s="78"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173" s="67">
+      <c r="J172" s="37"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="79">
         <v>28</v>
       </c>
-      <c r="B173" s="59" t="s">
+      <c r="B173" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="C173" s="59"/>
-      <c r="D173" s="59"/>
-      <c r="E173" s="82"/>
-      <c r="F173" s="82"/>
-      <c r="G173" s="82"/>
-      <c r="H173" s="82"/>
-      <c r="I173" s="82"/>
-      <c r="J173" s="55"/>
-    </row>
-    <row r="174" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="68"/>
+      <c r="C173" s="71"/>
+      <c r="D173" s="71"/>
+      <c r="E173" s="47"/>
+      <c r="F173" s="47"/>
+      <c r="G173" s="47"/>
+      <c r="H173" s="47"/>
+      <c r="I173" s="47"/>
+      <c r="J173" s="48"/>
+    </row>
+    <row r="174" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="80"/>
       <c r="B174" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C174" s="57" t="s">
+      <c r="C174" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="D174" s="58"/>
-      <c r="E174" s="47"/>
-      <c r="F174" s="48"/>
+      <c r="D174" s="70"/>
+      <c r="E174" s="44"/>
+      <c r="F174" s="45"/>
       <c r="G174" s="36"/>
       <c r="H174" s="36">
         <v>2</v>
       </c>
       <c r="I174" s="36"/>
-      <c r="J174" s="78"/>
-    </row>
-    <row r="175" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="68"/>
+      <c r="J174" s="37"/>
+    </row>
+    <row r="175" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="80"/>
       <c r="B175" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C175" s="57" t="s">
+      <c r="C175" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="D175" s="58"/>
-      <c r="E175" s="47"/>
-      <c r="F175" s="48"/>
+      <c r="D175" s="70"/>
+      <c r="E175" s="44"/>
+      <c r="F175" s="45"/>
       <c r="G175" s="36"/>
       <c r="H175" s="36">
         <v>2</v>
       </c>
       <c r="I175" s="36"/>
-      <c r="J175" s="78"/>
-    </row>
-    <row r="176" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="69"/>
+      <c r="J175" s="37"/>
+    </row>
+    <row r="176" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="81"/>
       <c r="B176" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C176" s="57" t="s">
+      <c r="C176" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="D176" s="57"/>
-      <c r="E176" s="47"/>
-      <c r="F176" s="48"/>
+      <c r="D176" s="69"/>
+      <c r="E176" s="44"/>
+      <c r="F176" s="45"/>
       <c r="G176" s="36"/>
       <c r="H176" s="36">
         <v>2</v>
       </c>
       <c r="I176" s="36"/>
-      <c r="J176" s="78"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" s="43" t="s">
+      <c r="J176" s="37"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B177" s="43"/>
-      <c r="C177" s="43"/>
-      <c r="D177" s="43"/>
-      <c r="E177" s="43"/>
-      <c r="F177" s="43"/>
-      <c r="G177" s="43"/>
+      <c r="B177" s="51"/>
+      <c r="C177" s="51"/>
+      <c r="D177" s="51"/>
+      <c r="E177" s="51"/>
+      <c r="F177" s="51"/>
+      <c r="G177" s="51"/>
       <c r="H177" s="9">
         <v>244</v>
       </c>
       <c r="I177" s="12"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" s="43" t="s">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="B178" s="43"/>
-      <c r="C178" s="43"/>
-      <c r="D178" s="43"/>
-      <c r="E178" s="43"/>
-      <c r="F178" s="43"/>
-      <c r="G178" s="43"/>
-      <c r="H178" s="45"/>
-      <c r="I178" s="45"/>
-    </row>
-    <row r="179" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="51"/>
+      <c r="C178" s="51"/>
+      <c r="D178" s="51"/>
+      <c r="E178" s="51"/>
+      <c r="F178" s="51"/>
+      <c r="G178" s="51"/>
+      <c r="H178" s="57"/>
+      <c r="I178" s="57"/>
+    </row>
+    <row r="179" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="26"/>
       <c r="B179" s="27"/>
-      <c r="C179" s="64"/>
-      <c r="D179" s="64"/>
+      <c r="C179" s="76"/>
+      <c r="D179" s="76"/>
       <c r="E179" s="26"/>
       <c r="F179" s="26"/>
       <c r="G179" s="26"/>
       <c r="H179" s="28"/>
     </row>
-    <row r="180" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="73" t="s">
+    <row r="180" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="B180" s="73"/>
-      <c r="C180" s="73"/>
-      <c r="D180" s="73"/>
-      <c r="E180" s="73"/>
-      <c r="F180" s="73"/>
-      <c r="G180" s="73"/>
-      <c r="H180" s="73"/>
-      <c r="I180" s="73"/>
-      <c r="J180" s="73"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A181" s="61"/>
-      <c r="B181" s="61"/>
-      <c r="C181" s="61"/>
-      <c r="D181" s="61"/>
-      <c r="E181" s="61"/>
-      <c r="F181" s="61"/>
-      <c r="G181" s="61"/>
-      <c r="H181" s="61"/>
-      <c r="I181" s="61"/>
-      <c r="J181" s="61"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" s="62"/>
-      <c r="B182" s="62"/>
-      <c r="C182" s="62"/>
-      <c r="D182" s="62"/>
-      <c r="E182" s="62"/>
-      <c r="F182" s="62"/>
-      <c r="G182" s="62"/>
-      <c r="H182" s="62"/>
-      <c r="I182" s="62"/>
-      <c r="J182" s="62"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="63"/>
-      <c r="B183" s="63"/>
-      <c r="C183" s="63"/>
-      <c r="D183" s="63"/>
-      <c r="E183" s="63"/>
-      <c r="F183" s="63"/>
-      <c r="G183" s="63"/>
-      <c r="H183" s="63"/>
-      <c r="I183" s="63"/>
-      <c r="J183" s="63"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" s="63"/>
-      <c r="B184" s="63"/>
-      <c r="C184" s="63"/>
-      <c r="D184" s="63"/>
-      <c r="E184" s="63"/>
-      <c r="F184" s="63"/>
-      <c r="G184" s="63"/>
-      <c r="H184" s="63"/>
-      <c r="I184" s="63"/>
-      <c r="J184" s="63"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" s="74"/>
-      <c r="B185" s="74"/>
-      <c r="C185" s="74"/>
-      <c r="D185" s="74"/>
-      <c r="E185" s="74"/>
-      <c r="F185" s="74"/>
-      <c r="G185" s="74"/>
-      <c r="H185" s="74"/>
-      <c r="I185" s="74"/>
-      <c r="J185" s="74"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A186" s="63"/>
-      <c r="B186" s="63"/>
-      <c r="C186" s="63"/>
-      <c r="D186" s="63"/>
-      <c r="E186" s="63"/>
-      <c r="F186" s="63"/>
-      <c r="G186" s="63"/>
-      <c r="H186" s="63"/>
-      <c r="I186" s="63"/>
-      <c r="J186" s="63"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" s="63"/>
-      <c r="B187" s="63"/>
-      <c r="C187" s="63"/>
-      <c r="D187" s="63"/>
-      <c r="E187" s="63"/>
-      <c r="F187" s="63"/>
-      <c r="G187" s="63"/>
-      <c r="H187" s="63"/>
-      <c r="I187" s="63"/>
-      <c r="J187" s="63"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B180" s="85"/>
+      <c r="C180" s="85"/>
+      <c r="D180" s="85"/>
+      <c r="E180" s="85"/>
+      <c r="F180" s="85"/>
+      <c r="G180" s="85"/>
+      <c r="H180" s="85"/>
+      <c r="I180" s="85"/>
+      <c r="J180" s="85"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="73"/>
+      <c r="B181" s="73"/>
+      <c r="C181" s="73"/>
+      <c r="D181" s="73"/>
+      <c r="E181" s="73"/>
+      <c r="F181" s="73"/>
+      <c r="G181" s="73"/>
+      <c r="H181" s="73"/>
+      <c r="I181" s="73"/>
+      <c r="J181" s="73"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="74"/>
+      <c r="B182" s="74"/>
+      <c r="C182" s="74"/>
+      <c r="D182" s="74"/>
+      <c r="E182" s="74"/>
+      <c r="F182" s="74"/>
+      <c r="G182" s="74"/>
+      <c r="H182" s="74"/>
+      <c r="I182" s="74"/>
+      <c r="J182" s="74"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="75"/>
+      <c r="B183" s="75"/>
+      <c r="C183" s="75"/>
+      <c r="D183" s="75"/>
+      <c r="E183" s="75"/>
+      <c r="F183" s="75"/>
+      <c r="G183" s="75"/>
+      <c r="H183" s="75"/>
+      <c r="I183" s="75"/>
+      <c r="J183" s="75"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="75"/>
+      <c r="B184" s="75"/>
+      <c r="C184" s="75"/>
+      <c r="D184" s="75"/>
+      <c r="E184" s="75"/>
+      <c r="F184" s="75"/>
+      <c r="G184" s="75"/>
+      <c r="H184" s="75"/>
+      <c r="I184" s="75"/>
+      <c r="J184" s="75"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="86"/>
+      <c r="B185" s="86"/>
+      <c r="C185" s="86"/>
+      <c r="D185" s="86"/>
+      <c r="E185" s="86"/>
+      <c r="F185" s="86"/>
+      <c r="G185" s="86"/>
+      <c r="H185" s="86"/>
+      <c r="I185" s="86"/>
+      <c r="J185" s="86"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="75"/>
+      <c r="B186" s="75"/>
+      <c r="C186" s="75"/>
+      <c r="D186" s="75"/>
+      <c r="E186" s="75"/>
+      <c r="F186" s="75"/>
+      <c r="G186" s="75"/>
+      <c r="H186" s="75"/>
+      <c r="I186" s="75"/>
+      <c r="J186" s="75"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="75"/>
+      <c r="B187" s="75"/>
+      <c r="C187" s="75"/>
+      <c r="D187" s="75"/>
+      <c r="E187" s="75"/>
+      <c r="F187" s="75"/>
+      <c r="G187" s="75"/>
+      <c r="H187" s="75"/>
+      <c r="I187" s="75"/>
+      <c r="J187" s="75"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B188" s="5"/>
-      <c r="C188" s="60"/>
-      <c r="D188" s="60"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C188" s="72"/>
+      <c r="D188" s="72"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>180</v>
       </c>
@@ -5307,48 +5316,48 @@
         <v>181</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C191" s="60"/>
-      <c r="D191" s="60"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C192" s="60"/>
-      <c r="D192" s="60"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C191" s="72"/>
+      <c r="D191" s="72"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C192" s="72"/>
+      <c r="D192" s="72"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C193" s="60"/>
-      <c r="D193" s="60"/>
-    </row>
-    <row r="194" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C193" s="72"/>
+      <c r="D193" s="72"/>
+    </row>
+    <row r="194" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
-      <c r="E194" s="44" t="s">
+      <c r="E194" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="F194" s="46" t="s">
+      <c r="F194" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="G194" s="46"/>
-      <c r="H194" s="46"/>
-      <c r="I194" s="37" t="s">
+      <c r="G194" s="58"/>
+      <c r="H194" s="58"/>
+      <c r="I194" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="J194" s="37"/>
-    </row>
-    <row r="195" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C195" s="60"/>
-      <c r="D195" s="60"/>
-      <c r="E195" s="44"/>
-      <c r="F195" s="45" t="s">
+      <c r="J194" s="43"/>
+    </row>
+    <row r="195" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C195" s="72"/>
+      <c r="D195" s="72"/>
+      <c r="E195" s="56"/>
+      <c r="F195" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="G195" s="45"/>
+      <c r="G195" s="57"/>
       <c r="H195" s="11" t="s">
         <v>184</v>
       </c>
@@ -5359,46 +5368,46 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C196" s="60"/>
-      <c r="D196" s="60"/>
-      <c r="E196" s="44"/>
-      <c r="F196" s="47"/>
-      <c r="G196" s="48"/>
+    <row r="196" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C196" s="72"/>
+      <c r="D196" s="72"/>
+      <c r="E196" s="56"/>
+      <c r="F196" s="44"/>
+      <c r="G196" s="45"/>
       <c r="H196" s="12"/>
       <c r="I196" s="12"/>
       <c r="J196" s="12"/>
     </row>
-    <row r="197" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>187</v>
       </c>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
-      <c r="E197" s="44"/>
-      <c r="F197" s="47"/>
-      <c r="G197" s="48"/>
+      <c r="E197" s="56"/>
+      <c r="F197" s="44"/>
+      <c r="G197" s="45"/>
       <c r="H197" s="12"/>
       <c r="I197" s="12"/>
       <c r="J197" s="12"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C199" s="60"/>
-      <c r="D199" s="60"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C200" s="60"/>
-      <c r="D200" s="60"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C199" s="72"/>
+      <c r="D199" s="72"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C200" s="72"/>
+      <c r="D200" s="72"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="29" t="s">
         <v>192</v>
       </c>
@@ -5409,7 +5418,7 @@
       <c r="F202" s="29"/>
       <c r="G202" s="29"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="29" t="s">
         <v>193</v>
       </c>
@@ -5420,7 +5429,7 @@
       <c r="F203" s="29"/>
       <c r="G203" s="29"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="29" t="s">
         <v>194</v>
       </c>
@@ -5431,7 +5440,7 @@
       <c r="F204" s="29"/>
       <c r="G204" s="29"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="29"/>
       <c r="B205" s="29"/>
       <c r="C205" s="29"/>
@@ -5811,43 +5820,43 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="4.5" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -5855,7 +5864,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -5863,7 +5872,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5871,7 +5880,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -5879,19 +5888,19 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="52" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="53"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="25" t="s">
         <v>10</v>
       </c>
@@ -5905,33 +5914,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="67">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="79">
         <v>1</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+    </row>
+    <row r="13" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="80"/>
       <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="12"/>
       <c r="H13" s="32">
         <v>2</v>
@@ -5941,17 +5950,17 @@
       </c>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
+    <row r="14" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="80"/>
       <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="12"/>
       <c r="H14" s="32">
         <v>2</v>
@@ -5961,17 +5970,17 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
+    <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="80"/>
       <c r="B15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="12"/>
       <c r="H15" s="32">
         <v>2</v>
@@ -5981,17 +5990,17 @@
       </c>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68"/>
+    <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="80"/>
       <c r="B16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="12"/>
       <c r="H16" s="32">
         <v>2</v>
@@ -5999,17 +6008,17 @@
       <c r="I16" s="32"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
+    <row r="17" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
       <c r="B17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="12"/>
       <c r="H17" s="32">
         <v>2</v>
@@ -6017,33 +6026,33 @@
       <c r="I17" s="32"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67">
-        <v>2</v>
-      </c>
-      <c r="B18" s="55" t="s">
+    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="79">
+        <v>2</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-    </row>
-    <row r="19" spans="1:10" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="68"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+    </row>
+    <row r="19" spans="1:10" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="80"/>
       <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="35"/>
       <c r="H19" s="32">
         <v>3</v>
@@ -6051,17 +6060,17 @@
       <c r="I19" s="32"/>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" spans="1:10" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68"/>
+    <row r="20" spans="1:10" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="80"/>
       <c r="B20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="35"/>
       <c r="H20" s="32">
         <v>2</v>
@@ -6069,17 +6078,17 @@
       <c r="I20" s="32"/>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" spans="1:10" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="69"/>
+    <row r="21" spans="1:10" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="81"/>
       <c r="B21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="35"/>
       <c r="H21" s="32">
         <v>2</v>
@@ -6087,33 +6096,33 @@
       <c r="I21" s="32"/>
       <c r="J21" s="35"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="67">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="79">
         <v>3</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-    </row>
-    <row r="23" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="68"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="92"/>
+    </row>
+    <row r="23" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
       <c r="B23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="91"/>
       <c r="G23" s="35"/>
       <c r="H23" s="32">
         <v>2</v>
@@ -6121,17 +6130,17 @@
       <c r="I23" s="32"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" spans="1:10" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="68"/>
+    <row r="24" spans="1:10" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
       <c r="B24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
       <c r="G24" s="35"/>
       <c r="H24" s="32">
         <v>2</v>
@@ -6139,17 +6148,17 @@
       <c r="I24" s="32"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" spans="1:10" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="69"/>
+    <row r="25" spans="1:10" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="81"/>
       <c r="B25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="91"/>
       <c r="G25" s="35"/>
       <c r="H25" s="32">
         <v>2</v>
@@ -6157,33 +6166,33 @@
       <c r="I25" s="32"/>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="67">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="79">
         <v>4</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-    </row>
-    <row r="27" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="68"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+    </row>
+    <row r="27" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="80"/>
       <c r="B27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="91"/>
       <c r="G27" s="12"/>
       <c r="H27" s="14">
         <v>3</v>
@@ -6191,17 +6200,17 @@
       <c r="I27" s="32"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
+    <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="80"/>
       <c r="B28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="91"/>
       <c r="G28" s="12"/>
       <c r="H28" s="14">
         <v>3</v>
@@ -6209,17 +6218,17 @@
       <c r="I28" s="32"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="69"/>
+    <row r="29" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="81"/>
       <c r="B29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="91"/>
       <c r="G29" s="12"/>
       <c r="H29" s="14">
         <v>3</v>
@@ -6227,33 +6236,33 @@
       <c r="I29" s="32"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="67">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="79">
         <v>5</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-    </row>
-    <row r="31" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+    </row>
+    <row r="31" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="80"/>
       <c r="B31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="91"/>
       <c r="G31" s="12"/>
       <c r="H31" s="14">
         <v>3</v>
@@ -6261,17 +6270,17 @@
       <c r="I31" s="32"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="68"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="80"/>
       <c r="B32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="91"/>
       <c r="G32" s="12"/>
       <c r="H32" s="14">
         <v>3</v>
@@ -6279,17 +6288,17 @@
       <c r="I32" s="32"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
+    <row r="33" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="81"/>
       <c r="B33" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="91"/>
       <c r="G33" s="12"/>
       <c r="H33" s="14">
         <v>3</v>
@@ -6297,33 +6306,33 @@
       <c r="I33" s="32"/>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="67">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="79">
         <v>6</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-    </row>
-    <row r="35" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="68"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+    </row>
+    <row r="35" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="80"/>
       <c r="B35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="91"/>
       <c r="G35" s="12"/>
       <c r="H35" s="14">
         <v>2</v>
@@ -6331,17 +6340,17 @@
       <c r="I35" s="32"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="68"/>
+    <row r="36" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="80"/>
       <c r="B36" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="91"/>
       <c r="G36" s="12"/>
       <c r="H36" s="14">
         <v>3</v>
@@ -6349,17 +6358,17 @@
       <c r="I36" s="32"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="68"/>
+    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="80"/>
       <c r="B37" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="91"/>
       <c r="G37" s="12"/>
       <c r="H37" s="14">
         <v>3</v>
@@ -6367,17 +6376,17 @@
       <c r="I37" s="32"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="69"/>
+    <row r="38" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="81"/>
       <c r="B38" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="91"/>
       <c r="G38" s="12"/>
       <c r="H38" s="14">
         <v>3</v>
@@ -6385,33 +6394,33 @@
       <c r="I38" s="32"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="67">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="79">
         <v>7</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-    </row>
-    <row r="40" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="68"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+    </row>
+    <row r="40" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="80"/>
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="91"/>
       <c r="G40" s="12"/>
       <c r="H40" s="14">
         <v>3</v>
@@ -6419,17 +6428,17 @@
       <c r="I40" s="32"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="68"/>
+    <row r="41" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="80"/>
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="91"/>
       <c r="G41" s="12"/>
       <c r="H41" s="14">
         <v>3</v>
@@ -6437,17 +6446,17 @@
       <c r="I41" s="32"/>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="68"/>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="80"/>
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="91"/>
       <c r="G42" s="12"/>
       <c r="H42" s="14">
         <v>3</v>
@@ -6455,17 +6464,17 @@
       <c r="I42" s="32"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="68"/>
+    <row r="43" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="80"/>
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="91"/>
       <c r="G43" s="12"/>
       <c r="H43" s="14">
         <v>3</v>
@@ -6473,17 +6482,17 @@
       <c r="I43" s="32"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="69"/>
+    <row r="44" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="81"/>
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="91"/>
       <c r="G44" s="12"/>
       <c r="H44" s="14">
         <v>3</v>
@@ -6491,33 +6500,33 @@
       <c r="I44" s="32"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="67">
-        <v>8</v>
-      </c>
-      <c r="B45" s="40" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="79">
+        <v>8</v>
+      </c>
+      <c r="B45" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-    </row>
-    <row r="46" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="68"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+    </row>
+    <row r="46" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="80"/>
       <c r="B46" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="71"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="91"/>
       <c r="G46" s="12"/>
       <c r="H46" s="14">
         <v>3</v>
@@ -6525,17 +6534,17 @@
       <c r="I46" s="32"/>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="68"/>
+    <row r="47" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="80"/>
       <c r="B47" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="39"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="91"/>
       <c r="G47" s="12"/>
       <c r="H47" s="14">
         <v>2</v>
@@ -6543,17 +6552,17 @@
       <c r="I47" s="32"/>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="68"/>
+    <row r="48" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="80"/>
       <c r="B48" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="39"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="91"/>
       <c r="G48" s="12"/>
       <c r="H48" s="14">
         <v>3</v>
@@ -6561,17 +6570,17 @@
       <c r="I48" s="32"/>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="68"/>
+    <row r="49" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="80"/>
       <c r="B49" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="39"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="91"/>
       <c r="G49" s="12"/>
       <c r="H49" s="14">
         <v>3</v>
@@ -6579,17 +6588,17 @@
       <c r="I49" s="32"/>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="68"/>
+    <row r="50" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="80"/>
       <c r="B50" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="39"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="91"/>
       <c r="G50" s="12"/>
       <c r="H50" s="14">
         <v>1</v>
@@ -6597,17 +6606,17 @@
       <c r="I50" s="32"/>
       <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="69"/>
+    <row r="51" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="81"/>
       <c r="B51" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="39"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="91"/>
       <c r="G51" s="12"/>
       <c r="H51" s="14">
         <v>2</v>
@@ -6615,33 +6624,33 @@
       <c r="I51" s="32"/>
       <c r="J51" s="12"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="67">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="79">
         <v>9</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-    </row>
-    <row r="53" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="68"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+    </row>
+    <row r="53" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="80"/>
       <c r="B53" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="39"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="91"/>
       <c r="G53" s="12"/>
       <c r="H53" s="14">
         <v>2</v>
@@ -6649,17 +6658,17 @@
       <c r="I53" s="32"/>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="68"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="80"/>
       <c r="B54" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="42" t="s">
+      <c r="C54" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="39"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="91"/>
       <c r="G54" s="12"/>
       <c r="H54" s="14">
         <v>2</v>
@@ -6667,17 +6676,17 @@
       <c r="I54" s="32"/>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="68"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="80"/>
       <c r="B55" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="39"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="91"/>
       <c r="G55" s="12"/>
       <c r="H55" s="14">
         <v>2</v>
@@ -6685,17 +6694,17 @@
       <c r="I55" s="32"/>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="68"/>
+    <row r="56" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="80"/>
       <c r="B56" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="39"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="91"/>
       <c r="G56" s="12"/>
       <c r="H56" s="14">
         <v>2</v>
@@ -6703,17 +6712,17 @@
       <c r="I56" s="32"/>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="68"/>
+    <row r="57" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="80"/>
       <c r="B57" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="39"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="91"/>
       <c r="G57" s="12"/>
       <c r="H57" s="14">
         <v>2</v>
@@ -6721,17 +6730,17 @@
       <c r="I57" s="32"/>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="68"/>
+    <row r="58" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="80"/>
       <c r="B58" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="39"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="91"/>
       <c r="G58" s="12"/>
       <c r="H58" s="14">
         <v>2</v>
@@ -6739,17 +6748,17 @@
       <c r="I58" s="32"/>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="68"/>
+    <row r="59" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="80"/>
       <c r="B59" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="39"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="91"/>
       <c r="G59" s="12"/>
       <c r="H59" s="14">
         <v>2</v>
@@ -6757,17 +6766,17 @@
       <c r="I59" s="32"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="69"/>
+    <row r="60" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="81"/>
       <c r="B60" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="39"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="91"/>
       <c r="G60" s="12"/>
       <c r="H60" s="14">
         <v>2</v>
@@ -6775,33 +6784,33 @@
       <c r="I60" s="32"/>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="67">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="79">
         <v>10</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-    </row>
-    <row r="62" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="68"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+    </row>
+    <row r="62" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="80"/>
       <c r="B62" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="39"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="91"/>
       <c r="G62" s="12"/>
       <c r="H62" s="14">
         <v>2</v>
@@ -6809,17 +6818,17 @@
       <c r="I62" s="32"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="68"/>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="80"/>
       <c r="B63" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="42" t="s">
+      <c r="C63" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="42"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="39"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="91"/>
       <c r="G63" s="12"/>
       <c r="H63" s="14">
         <v>2</v>
@@ -6827,17 +6836,17 @@
       <c r="I63" s="32"/>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="68"/>
+    <row r="64" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="80"/>
       <c r="B64" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="42"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="39"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="91"/>
       <c r="G64" s="12"/>
       <c r="H64" s="14">
         <v>2</v>
@@ -6845,17 +6854,17 @@
       <c r="I64" s="32"/>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="69"/>
+    <row r="65" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="81"/>
       <c r="B65" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="C65" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="42"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="39"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="91"/>
       <c r="G65" s="12"/>
       <c r="H65" s="14">
         <v>2</v>
@@ -6863,33 +6872,33 @@
       <c r="I65" s="32"/>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="67">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="79">
         <v>11</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-    </row>
-    <row r="67" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="68"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+    </row>
+    <row r="67" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="80"/>
       <c r="B67" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C67" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="39"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="91"/>
       <c r="G67" s="12"/>
       <c r="H67" s="14">
         <v>2</v>
@@ -6897,17 +6906,17 @@
       <c r="I67" s="32"/>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="68"/>
+    <row r="68" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="80"/>
       <c r="B68" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="D68" s="42"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="39"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="91"/>
       <c r="G68" s="12"/>
       <c r="H68" s="14">
         <v>2</v>
@@ -6915,17 +6924,17 @@
       <c r="I68" s="32"/>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="68"/>
+    <row r="69" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="80"/>
       <c r="B69" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="41" t="s">
+      <c r="C69" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="39"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="91"/>
       <c r="G69" s="12"/>
       <c r="H69" s="14">
         <v>3</v>
@@ -6933,17 +6942,17 @@
       <c r="I69" s="32"/>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="68"/>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="80"/>
       <c r="B70" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="42" t="s">
+      <c r="C70" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="42"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="39"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="91"/>
       <c r="G70" s="12"/>
       <c r="H70" s="14">
         <v>2</v>
@@ -6951,17 +6960,17 @@
       <c r="I70" s="32"/>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="69"/>
+    <row r="71" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="81"/>
       <c r="B71" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="42"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="39"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="91"/>
       <c r="G71" s="12"/>
       <c r="H71" s="14">
         <v>2</v>
@@ -6969,33 +6978,33 @@
       <c r="I71" s="32"/>
       <c r="J71" s="12"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="67">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="79">
         <v>12</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-    </row>
-    <row r="73" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="68"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+    </row>
+    <row r="73" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="80"/>
       <c r="B73" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="C73" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="D73" s="42"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="39"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="91"/>
       <c r="G73" s="12"/>
       <c r="H73" s="14">
         <v>2</v>
@@ -7003,17 +7012,17 @@
       <c r="I73" s="32"/>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="68"/>
+    <row r="74" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="80"/>
       <c r="B74" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C74" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="42"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="39"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="91"/>
       <c r="G74" s="12"/>
       <c r="H74" s="14">
         <v>2</v>
@@ -7021,17 +7030,17 @@
       <c r="I74" s="32"/>
       <c r="J74" s="12"/>
     </row>
-    <row r="75" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="69"/>
+    <row r="75" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="81"/>
       <c r="B75" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="42"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="39"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="91"/>
       <c r="G75" s="12"/>
       <c r="H75" s="14">
         <v>2</v>
@@ -7039,33 +7048,33 @@
       <c r="I75" s="32"/>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="67">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="79">
         <v>13</v>
       </c>
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="51"/>
-    </row>
-    <row r="77" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="68"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="92"/>
+    </row>
+    <row r="77" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="80"/>
       <c r="B77" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="41" t="s">
+      <c r="C77" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D77" s="41"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="39"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="91"/>
       <c r="G77" s="12"/>
       <c r="H77" s="14">
         <v>2</v>
@@ -7073,17 +7082,17 @@
       <c r="I77" s="32"/>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="68"/>
+    <row r="78" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="80"/>
       <c r="B78" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D78" s="41"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="39"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="90"/>
+      <c r="F78" s="91"/>
       <c r="G78" s="12"/>
       <c r="H78" s="14">
         <v>2</v>
@@ -7091,17 +7100,17 @@
       <c r="I78" s="32"/>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="69"/>
+    <row r="79" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="81"/>
       <c r="B79" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="41"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="39"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="91"/>
       <c r="G79" s="12"/>
       <c r="H79" s="14">
         <v>2</v>
@@ -7109,17 +7118,17 @@
       <c r="I79" s="32"/>
       <c r="J79" s="12"/>
     </row>
-    <row r="80" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="31">
         <v>14</v>
       </c>
-      <c r="B80" s="66" t="s">
+      <c r="B80" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="66"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="39"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="90"/>
+      <c r="F80" s="91"/>
       <c r="G80" s="17"/>
       <c r="H80" s="16">
         <v>2</v>
@@ -7127,17 +7136,17 @@
       <c r="I80" s="16"/>
       <c r="J80" s="17"/>
     </row>
-    <row r="81" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>15</v>
       </c>
-      <c r="B81" s="65" t="s">
+      <c r="B81" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="39"/>
+      <c r="C81" s="77"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="91"/>
       <c r="G81" s="18"/>
       <c r="H81" s="19">
         <v>2</v>
@@ -7145,33 +7154,33 @@
       <c r="I81" s="19"/>
       <c r="J81" s="18"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="67">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="79">
         <v>16</v>
       </c>
-      <c r="B82" s="40" t="s">
+      <c r="B82" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="68"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="46"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="80"/>
       <c r="B83" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="39"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="90"/>
+      <c r="F83" s="91"/>
       <c r="G83" s="12"/>
       <c r="H83" s="32">
         <v>2</v>
@@ -7179,17 +7188,17 @@
       <c r="I83" s="32"/>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="68"/>
+    <row r="84" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="80"/>
       <c r="B84" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="57" t="s">
+      <c r="C84" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="D84" s="57"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="39"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="91"/>
       <c r="G84" s="12"/>
       <c r="H84" s="32">
         <v>2</v>
@@ -7197,17 +7206,17 @@
       <c r="I84" s="32"/>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="68"/>
+    <row r="85" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="80"/>
       <c r="B85" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="57" t="s">
+      <c r="C85" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="58"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="39"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="90"/>
+      <c r="F85" s="91"/>
       <c r="G85" s="12"/>
       <c r="H85" s="32">
         <v>2</v>
@@ -7215,17 +7224,17 @@
       <c r="I85" s="32"/>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="69"/>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="81"/>
       <c r="B86" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="58" t="s">
+      <c r="C86" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="D86" s="58"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="39"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="90"/>
+      <c r="F86" s="91"/>
       <c r="G86" s="12"/>
       <c r="H86" s="32">
         <v>2</v>
@@ -7233,33 +7242,33 @@
       <c r="I86" s="32"/>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="67">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="79">
         <v>17</v>
       </c>
-      <c r="B87" s="40" t="s">
+      <c r="B87" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-    </row>
-    <row r="88" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="68"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
+    </row>
+    <row r="88" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="80"/>
       <c r="B88" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="41" t="s">
+      <c r="C88" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D88" s="41"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="39"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="90"/>
+      <c r="F88" s="91"/>
       <c r="G88" s="12"/>
       <c r="H88" s="32">
         <v>2</v>
@@ -7267,17 +7276,17 @@
       <c r="I88" s="32"/>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="68"/>
+    <row r="89" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="80"/>
       <c r="B89" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="41" t="s">
+      <c r="C89" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D89" s="41"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="39"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="90"/>
+      <c r="F89" s="91"/>
       <c r="G89" s="12"/>
       <c r="H89" s="32">
         <v>2</v>
@@ -7285,17 +7294,17 @@
       <c r="I89" s="32"/>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="68"/>
+    <row r="90" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="80"/>
       <c r="B90" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="41" t="s">
+      <c r="C90" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="D90" s="42"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="39"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="90"/>
+      <c r="F90" s="91"/>
       <c r="G90" s="12"/>
       <c r="H90" s="32">
         <v>2</v>
@@ -7303,17 +7312,17 @@
       <c r="I90" s="32"/>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="68"/>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="80"/>
       <c r="B91" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="42" t="s">
+      <c r="C91" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="42"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="39"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="91"/>
       <c r="G91" s="12"/>
       <c r="H91" s="32">
         <v>2</v>
@@ -7321,17 +7330,17 @@
       <c r="I91" s="32"/>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="68"/>
+    <row r="92" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="80"/>
       <c r="B92" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="39"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="90"/>
+      <c r="F92" s="91"/>
       <c r="G92" s="12"/>
       <c r="H92" s="32">
         <v>2</v>
@@ -7339,17 +7348,17 @@
       <c r="I92" s="32"/>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="69"/>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="81"/>
       <c r="B93" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="42" t="s">
+      <c r="C93" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D93" s="42"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="39"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="90"/>
+      <c r="F93" s="91"/>
       <c r="G93" s="12"/>
       <c r="H93" s="32">
         <v>2</v>
@@ -7357,33 +7366,33 @@
       <c r="I93" s="32"/>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="67">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="79">
         <v>18</v>
       </c>
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="40"/>
-    </row>
-    <row r="95" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="68"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="46"/>
+    </row>
+    <row r="95" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="80"/>
       <c r="B95" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="41" t="s">
+      <c r="C95" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D95" s="41"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="39"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="90"/>
+      <c r="F95" s="91"/>
       <c r="G95" s="12"/>
       <c r="H95" s="32">
         <v>2</v>
@@ -7391,17 +7400,17 @@
       <c r="I95" s="32"/>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="68"/>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="80"/>
       <c r="B96" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="42" t="s">
+      <c r="C96" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D96" s="42"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="39"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="90"/>
+      <c r="F96" s="91"/>
       <c r="G96" s="12"/>
       <c r="H96" s="32">
         <v>2</v>
@@ -7409,17 +7418,17 @@
       <c r="I96" s="32"/>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="69"/>
+    <row r="97" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="81"/>
       <c r="B97" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="41" t="s">
+      <c r="C97" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="41"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="39"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="90"/>
+      <c r="F97" s="91"/>
       <c r="G97" s="12"/>
       <c r="H97" s="32">
         <v>2</v>
@@ -7427,33 +7436,33 @@
       <c r="I97" s="32"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="67">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="79">
         <v>19</v>
       </c>
-      <c r="B98" s="40" t="s">
+      <c r="B98" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="40"/>
-    </row>
-    <row r="99" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="68"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="46"/>
+    </row>
+    <row r="99" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="80"/>
       <c r="B99" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="41" t="s">
+      <c r="C99" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="D99" s="42"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="39"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="90"/>
+      <c r="F99" s="91"/>
       <c r="G99" s="12"/>
       <c r="H99" s="32">
         <v>2</v>
@@ -7461,17 +7470,17 @@
       <c r="I99" s="32"/>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="68"/>
+    <row r="100" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="80"/>
       <c r="B100" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="41" t="s">
+      <c r="C100" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D100" s="41"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="39"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="90"/>
+      <c r="F100" s="91"/>
       <c r="G100" s="12"/>
       <c r="H100" s="32">
         <v>2</v>
@@ -7479,17 +7488,17 @@
       <c r="I100" s="32"/>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="68"/>
+    <row r="101" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="80"/>
       <c r="B101" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="41" t="s">
+      <c r="C101" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="41"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="39"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="91"/>
       <c r="G101" s="12"/>
       <c r="H101" s="32">
         <v>2</v>
@@ -7497,17 +7506,17 @@
       <c r="I101" s="32"/>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="68"/>
+    <row r="102" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="80"/>
       <c r="B102" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="42" t="s">
+      <c r="C102" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D102" s="42"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="39"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="90"/>
+      <c r="F102" s="91"/>
       <c r="G102" s="12"/>
       <c r="H102" s="32">
         <v>2</v>
@@ -7515,17 +7524,17 @@
       <c r="I102" s="32"/>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="69"/>
+    <row r="103" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="81"/>
       <c r="B103" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="41" t="s">
+      <c r="C103" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D103" s="42"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="39"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="90"/>
+      <c r="F103" s="91"/>
       <c r="G103" s="12"/>
       <c r="H103" s="32">
         <v>2</v>
@@ -7533,33 +7542,33 @@
       <c r="I103" s="32"/>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="67">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="79">
         <v>20</v>
       </c>
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="40"/>
-      <c r="F104" s="40"/>
-      <c r="G104" s="40"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="40"/>
-    </row>
-    <row r="105" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="68"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="46"/>
+    </row>
+    <row r="105" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="80"/>
       <c r="B105" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D105" s="42"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="39"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="90"/>
+      <c r="F105" s="91"/>
       <c r="G105" s="12"/>
       <c r="H105" s="32">
         <v>2</v>
@@ -7567,17 +7576,17 @@
       <c r="I105" s="32"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="68"/>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="80"/>
       <c r="B106" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="42" t="s">
+      <c r="C106" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D106" s="42"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="39"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="90"/>
+      <c r="F106" s="91"/>
       <c r="G106" s="12"/>
       <c r="H106" s="32">
         <v>2</v>
@@ -7585,17 +7594,17 @@
       <c r="I106" s="32"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="69"/>
+    <row r="107" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="81"/>
       <c r="B107" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C107" s="41" t="s">
+      <c r="C107" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D107" s="41"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="39"/>
+      <c r="D107" s="49"/>
+      <c r="E107" s="90"/>
+      <c r="F107" s="91"/>
       <c r="G107" s="12"/>
       <c r="H107" s="32">
         <v>2</v>
@@ -7603,33 +7612,33 @@
       <c r="I107" s="32"/>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="75">
+    <row r="108" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="87">
         <v>21</v>
       </c>
-      <c r="B108" s="55" t="s">
+      <c r="B108" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C108" s="55"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="55"/>
-      <c r="F108" s="55"/>
-      <c r="G108" s="55"/>
-      <c r="H108" s="55"/>
-      <c r="I108" s="55"/>
-      <c r="J108" s="55"/>
-    </row>
-    <row r="109" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="76"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="48"/>
+      <c r="J108" s="48"/>
+    </row>
+    <row r="109" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="88"/>
       <c r="B109" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="41" t="s">
+      <c r="C109" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="D109" s="42"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="39"/>
+      <c r="D109" s="50"/>
+      <c r="E109" s="90"/>
+      <c r="F109" s="91"/>
       <c r="G109" s="12"/>
       <c r="H109" s="32">
         <v>2</v>
@@ -7637,17 +7646,17 @@
       <c r="I109" s="32"/>
       <c r="J109" s="12"/>
     </row>
-    <row r="110" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="77"/>
+    <row r="110" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="89"/>
       <c r="B110" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C110" s="41" t="s">
+      <c r="C110" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="D110" s="42"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="39"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="90"/>
+      <c r="F110" s="91"/>
       <c r="G110" s="12"/>
       <c r="H110" s="32">
         <v>2</v>
@@ -7655,33 +7664,33 @@
       <c r="I110" s="32"/>
       <c r="J110" s="12"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="67">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="79">
         <v>22</v>
       </c>
-      <c r="B111" s="40" t="s">
+      <c r="B111" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="40"/>
-      <c r="F111" s="40"/>
-      <c r="G111" s="40"/>
-      <c r="H111" s="40"/>
-      <c r="I111" s="40"/>
-      <c r="J111" s="40"/>
-    </row>
-    <row r="112" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="68"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="46"/>
+      <c r="J111" s="46"/>
+    </row>
+    <row r="112" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="80"/>
       <c r="B112" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="41" t="s">
+      <c r="C112" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="D112" s="41"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="39"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="90"/>
+      <c r="F112" s="91"/>
       <c r="G112" s="12"/>
       <c r="H112" s="32">
         <v>2</v>
@@ -7689,17 +7698,17 @@
       <c r="I112" s="32"/>
       <c r="J112" s="12"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="69"/>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="81"/>
       <c r="B113" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="42" t="s">
+      <c r="C113" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D113" s="42"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="39"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="90"/>
+      <c r="F113" s="91"/>
       <c r="G113" s="12"/>
       <c r="H113" s="32">
         <v>2</v>
@@ -7707,47 +7716,47 @@
       <c r="I113" s="32"/>
       <c r="J113" s="12"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="67">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="79">
         <v>23</v>
       </c>
-      <c r="B114" s="40" t="s">
+      <c r="B114" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C114" s="40"/>
-      <c r="D114" s="40"/>
-      <c r="E114" s="40"/>
-      <c r="F114" s="40"/>
-      <c r="G114" s="40"/>
-      <c r="H114" s="40"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="40"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="68"/>
-      <c r="B115" s="43" t="s">
+      <c r="C114" s="46"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="46"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="46"/>
+      <c r="I114" s="46"/>
+      <c r="J114" s="46"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="80"/>
+      <c r="B115" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="43"/>
-      <c r="G115" s="43"/>
-      <c r="H115" s="43"/>
-      <c r="I115" s="43"/>
-      <c r="J115" s="43"/>
-    </row>
-    <row r="116" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="68"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="51"/>
+      <c r="I115" s="51"/>
+      <c r="J115" s="51"/>
+    </row>
+    <row r="116" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="80"/>
       <c r="B116" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C116" s="41" t="s">
+      <c r="C116" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="D116" s="42"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="39"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="90"/>
+      <c r="F116" s="91"/>
       <c r="G116" s="12"/>
       <c r="H116" s="32">
         <v>2</v>
@@ -7755,17 +7764,17 @@
       <c r="I116" s="32"/>
       <c r="J116" s="12"/>
     </row>
-    <row r="117" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="68"/>
+    <row r="117" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="80"/>
       <c r="B117" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="41" t="s">
+      <c r="C117" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D117" s="41"/>
-      <c r="E117" s="38"/>
-      <c r="F117" s="39"/>
+      <c r="D117" s="49"/>
+      <c r="E117" s="90"/>
+      <c r="F117" s="91"/>
       <c r="G117" s="12"/>
       <c r="H117" s="32">
         <v>2</v>
@@ -7773,17 +7782,17 @@
       <c r="I117" s="32"/>
       <c r="J117" s="12"/>
     </row>
-    <row r="118" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="68"/>
+    <row r="118" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="80"/>
       <c r="B118" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="41" t="s">
+      <c r="C118" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D118" s="41"/>
-      <c r="E118" s="38"/>
-      <c r="F118" s="39"/>
+      <c r="D118" s="49"/>
+      <c r="E118" s="90"/>
+      <c r="F118" s="91"/>
       <c r="G118" s="12"/>
       <c r="H118" s="32">
         <v>2</v>
@@ -7791,17 +7800,17 @@
       <c r="I118" s="32"/>
       <c r="J118" s="12"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="68"/>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="80"/>
       <c r="B119" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="42" t="s">
+      <c r="C119" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="D119" s="42"/>
-      <c r="E119" s="38"/>
-      <c r="F119" s="39"/>
+      <c r="D119" s="50"/>
+      <c r="E119" s="90"/>
+      <c r="F119" s="91"/>
       <c r="G119" s="12"/>
       <c r="H119" s="32">
         <v>2</v>
@@ -7809,17 +7818,17 @@
       <c r="I119" s="32"/>
       <c r="J119" s="12"/>
     </row>
-    <row r="120" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="68"/>
+    <row r="120" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="80"/>
       <c r="B120" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="41" t="s">
+      <c r="C120" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="D120" s="41"/>
-      <c r="E120" s="38"/>
-      <c r="F120" s="39"/>
+      <c r="D120" s="49"/>
+      <c r="E120" s="90"/>
+      <c r="F120" s="91"/>
       <c r="G120" s="12"/>
       <c r="H120" s="32">
         <v>2</v>
@@ -7827,31 +7836,31 @@
       <c r="I120" s="32"/>
       <c r="J120" s="12"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="68"/>
-      <c r="B121" s="43" t="s">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="80"/>
+      <c r="B121" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="C121" s="43"/>
-      <c r="D121" s="43"/>
-      <c r="E121" s="43"/>
-      <c r="F121" s="43"/>
-      <c r="G121" s="43"/>
-      <c r="H121" s="43"/>
-      <c r="I121" s="43"/>
-      <c r="J121" s="43"/>
-    </row>
-    <row r="122" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="68"/>
+      <c r="C121" s="51"/>
+      <c r="D121" s="51"/>
+      <c r="E121" s="51"/>
+      <c r="F121" s="51"/>
+      <c r="G121" s="51"/>
+      <c r="H121" s="51"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="51"/>
+    </row>
+    <row r="122" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="80"/>
       <c r="B122" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="41" t="s">
+      <c r="C122" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="D122" s="42"/>
-      <c r="E122" s="38"/>
-      <c r="F122" s="39"/>
+      <c r="D122" s="50"/>
+      <c r="E122" s="90"/>
+      <c r="F122" s="91"/>
       <c r="G122" s="12"/>
       <c r="H122" s="32">
         <v>2</v>
@@ -7859,17 +7868,17 @@
       <c r="I122" s="32"/>
       <c r="J122" s="12"/>
     </row>
-    <row r="123" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="68"/>
+    <row r="123" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="80"/>
       <c r="B123" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="41" t="s">
+      <c r="C123" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D123" s="41"/>
-      <c r="E123" s="38"/>
-      <c r="F123" s="39"/>
+      <c r="D123" s="49"/>
+      <c r="E123" s="90"/>
+      <c r="F123" s="91"/>
       <c r="G123" s="12"/>
       <c r="H123" s="32">
         <v>2</v>
@@ -7877,17 +7886,17 @@
       <c r="I123" s="32"/>
       <c r="J123" s="12"/>
     </row>
-    <row r="124" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="69"/>
+    <row r="124" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="81"/>
       <c r="B124" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C124" s="41" t="s">
+      <c r="C124" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D124" s="41"/>
-      <c r="E124" s="38"/>
-      <c r="F124" s="39"/>
+      <c r="D124" s="49"/>
+      <c r="E124" s="90"/>
+      <c r="F124" s="91"/>
       <c r="G124" s="12"/>
       <c r="H124" s="32">
         <v>2</v>
@@ -7895,33 +7904,33 @@
       <c r="I124" s="32"/>
       <c r="J124" s="12"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="67">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="79">
         <v>24</v>
       </c>
-      <c r="B125" s="40" t="s">
+      <c r="B125" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C125" s="40"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="40"/>
-      <c r="F125" s="40"/>
-      <c r="G125" s="40"/>
-      <c r="H125" s="40"/>
-      <c r="I125" s="40"/>
-      <c r="J125" s="40"/>
-    </row>
-    <row r="126" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="68"/>
+      <c r="C125" s="46"/>
+      <c r="D125" s="46"/>
+      <c r="E125" s="46"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="46"/>
+      <c r="J125" s="46"/>
+    </row>
+    <row r="126" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="80"/>
       <c r="B126" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="41" t="s">
+      <c r="C126" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D126" s="41"/>
-      <c r="E126" s="38"/>
-      <c r="F126" s="39"/>
+      <c r="D126" s="49"/>
+      <c r="E126" s="90"/>
+      <c r="F126" s="91"/>
       <c r="G126" s="12"/>
       <c r="H126" s="32">
         <v>2</v>
@@ -7929,17 +7938,17 @@
       <c r="I126" s="32"/>
       <c r="J126" s="12"/>
     </row>
-    <row r="127" spans="1:10" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="68"/>
+    <row r="127" spans="1:10" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="80"/>
       <c r="B127" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C127" s="41" t="s">
+      <c r="C127" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D127" s="41"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="39"/>
+      <c r="D127" s="49"/>
+      <c r="E127" s="90"/>
+      <c r="F127" s="91"/>
       <c r="G127" s="20"/>
       <c r="H127" s="11">
         <v>2</v>
@@ -7947,17 +7956,17 @@
       <c r="I127" s="11"/>
       <c r="J127" s="20"/>
     </row>
-    <row r="128" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="69"/>
+    <row r="128" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="81"/>
       <c r="B128" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C128" s="41" t="s">
+      <c r="C128" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D128" s="41"/>
-      <c r="E128" s="38"/>
-      <c r="F128" s="39"/>
+      <c r="D128" s="49"/>
+      <c r="E128" s="90"/>
+      <c r="F128" s="91"/>
       <c r="G128" s="12"/>
       <c r="H128" s="32">
         <v>2</v>
@@ -7965,47 +7974,47 @@
       <c r="I128" s="32"/>
       <c r="J128" s="12"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="67">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="79">
         <v>25</v>
       </c>
-      <c r="B129" s="40" t="s">
+      <c r="B129" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C129" s="40"/>
-      <c r="D129" s="40"/>
-      <c r="E129" s="40"/>
-      <c r="F129" s="40"/>
-      <c r="G129" s="40"/>
-      <c r="H129" s="40"/>
-      <c r="I129" s="40"/>
-      <c r="J129" s="40"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="68"/>
-      <c r="B130" s="43" t="s">
+      <c r="C129" s="46"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="46"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="46"/>
+      <c r="H129" s="46"/>
+      <c r="I129" s="46"/>
+      <c r="J129" s="46"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="80"/>
+      <c r="B130" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C130" s="43"/>
-      <c r="D130" s="43"/>
-      <c r="E130" s="43"/>
-      <c r="F130" s="43"/>
-      <c r="G130" s="43"/>
-      <c r="H130" s="43"/>
-      <c r="I130" s="43"/>
-      <c r="J130" s="43"/>
-    </row>
-    <row r="131" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="68"/>
+      <c r="C130" s="51"/>
+      <c r="D130" s="51"/>
+      <c r="E130" s="51"/>
+      <c r="F130" s="51"/>
+      <c r="G130" s="51"/>
+      <c r="H130" s="51"/>
+      <c r="I130" s="51"/>
+      <c r="J130" s="51"/>
+    </row>
+    <row r="131" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="80"/>
       <c r="B131" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C131" s="41" t="s">
+      <c r="C131" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="D131" s="42"/>
-      <c r="E131" s="38"/>
-      <c r="F131" s="39"/>
+      <c r="D131" s="50"/>
+      <c r="E131" s="90"/>
+      <c r="F131" s="91"/>
       <c r="G131" s="12"/>
       <c r="H131" s="32">
         <v>2</v>
@@ -8013,17 +8022,17 @@
       <c r="I131" s="32"/>
       <c r="J131" s="12"/>
     </row>
-    <row r="132" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="68"/>
+    <row r="132" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="80"/>
       <c r="B132" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C132" s="41" t="s">
+      <c r="C132" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D132" s="41"/>
-      <c r="E132" s="38"/>
-      <c r="F132" s="39"/>
+      <c r="D132" s="49"/>
+      <c r="E132" s="90"/>
+      <c r="F132" s="91"/>
       <c r="G132" s="12"/>
       <c r="H132" s="32">
         <v>2</v>
@@ -8031,17 +8040,17 @@
       <c r="I132" s="32"/>
       <c r="J132" s="12"/>
     </row>
-    <row r="133" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="68"/>
+    <row r="133" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="80"/>
       <c r="B133" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C133" s="41" t="s">
+      <c r="C133" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="D133" s="41"/>
-      <c r="E133" s="38"/>
-      <c r="F133" s="39"/>
+      <c r="D133" s="49"/>
+      <c r="E133" s="90"/>
+      <c r="F133" s="91"/>
       <c r="G133" s="12"/>
       <c r="H133" s="32">
         <v>2</v>
@@ -8049,17 +8058,17 @@
       <c r="I133" s="32"/>
       <c r="J133" s="12"/>
     </row>
-    <row r="134" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="68"/>
+    <row r="134" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="80"/>
       <c r="B134" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C134" s="41" t="s">
+      <c r="C134" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D134" s="41"/>
-      <c r="E134" s="38"/>
-      <c r="F134" s="39"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="90"/>
+      <c r="F134" s="91"/>
       <c r="G134" s="12"/>
       <c r="H134" s="32">
         <v>2</v>
@@ -8067,17 +8076,17 @@
       <c r="I134" s="32"/>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="68"/>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="80"/>
       <c r="B135" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C135" s="42" t="s">
+      <c r="C135" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="D135" s="42"/>
-      <c r="E135" s="38"/>
-      <c r="F135" s="39"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="90"/>
+      <c r="F135" s="91"/>
       <c r="G135" s="12"/>
       <c r="H135" s="32">
         <v>2</v>
@@ -8085,17 +8094,17 @@
       <c r="I135" s="32"/>
       <c r="J135" s="12"/>
     </row>
-    <row r="136" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="68"/>
+    <row r="136" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="80"/>
       <c r="B136" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C136" s="42" t="s">
+      <c r="C136" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="D136" s="42"/>
-      <c r="E136" s="38"/>
-      <c r="F136" s="39"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="90"/>
+      <c r="F136" s="91"/>
       <c r="G136" s="12"/>
       <c r="H136" s="32">
         <v>2</v>
@@ -8103,17 +8112,17 @@
       <c r="I136" s="32"/>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="68"/>
+    <row r="137" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="80"/>
       <c r="B137" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="41" t="s">
+      <c r="C137" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="D137" s="41"/>
-      <c r="E137" s="38"/>
-      <c r="F137" s="39"/>
+      <c r="D137" s="49"/>
+      <c r="E137" s="90"/>
+      <c r="F137" s="91"/>
       <c r="G137" s="12"/>
       <c r="H137" s="32">
         <v>2</v>
@@ -8121,31 +8130,31 @@
       <c r="I137" s="32"/>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="68"/>
-      <c r="B138" s="43" t="s">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="80"/>
+      <c r="B138" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="C138" s="43"/>
-      <c r="D138" s="43"/>
-      <c r="E138" s="43"/>
-      <c r="F138" s="43"/>
-      <c r="G138" s="43"/>
-      <c r="H138" s="43"/>
-      <c r="I138" s="43"/>
-      <c r="J138" s="43"/>
-    </row>
-    <row r="139" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="68"/>
+      <c r="C138" s="51"/>
+      <c r="D138" s="51"/>
+      <c r="E138" s="51"/>
+      <c r="F138" s="51"/>
+      <c r="G138" s="51"/>
+      <c r="H138" s="51"/>
+      <c r="I138" s="51"/>
+      <c r="J138" s="51"/>
+    </row>
+    <row r="139" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="80"/>
       <c r="B139" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="41" t="s">
+      <c r="C139" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="D139" s="42"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="39"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="90"/>
+      <c r="F139" s="91"/>
       <c r="G139" s="12"/>
       <c r="H139" s="32">
         <v>2</v>
@@ -8153,17 +8162,17 @@
       <c r="I139" s="32"/>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="68"/>
+    <row r="140" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="80"/>
       <c r="B140" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="41" t="s">
+      <c r="C140" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="D140" s="42"/>
-      <c r="E140" s="38"/>
-      <c r="F140" s="39"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="90"/>
+      <c r="F140" s="91"/>
       <c r="G140" s="12"/>
       <c r="H140" s="32">
         <v>2</v>
@@ -8171,17 +8180,17 @@
       <c r="I140" s="32"/>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="68"/>
+    <row r="141" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="80"/>
       <c r="B141" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C141" s="41" t="s">
+      <c r="C141" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="D141" s="42"/>
-      <c r="E141" s="38"/>
-      <c r="F141" s="39"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="90"/>
+      <c r="F141" s="91"/>
       <c r="G141" s="12"/>
       <c r="H141" s="32">
         <v>2</v>
@@ -8189,17 +8198,17 @@
       <c r="I141" s="32"/>
       <c r="J141" s="12"/>
     </row>
-    <row r="142" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="68"/>
+    <row r="142" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="80"/>
       <c r="B142" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C142" s="41" t="s">
+      <c r="C142" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D142" s="41"/>
-      <c r="E142" s="38"/>
-      <c r="F142" s="39"/>
+      <c r="D142" s="49"/>
+      <c r="E142" s="90"/>
+      <c r="F142" s="91"/>
       <c r="G142" s="12"/>
       <c r="H142" s="32">
         <v>2</v>
@@ -8207,17 +8216,17 @@
       <c r="I142" s="32"/>
       <c r="J142" s="12"/>
     </row>
-    <row r="143" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="68"/>
+    <row r="143" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="80"/>
       <c r="B143" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C143" s="41" t="s">
+      <c r="C143" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D143" s="41"/>
-      <c r="E143" s="38"/>
-      <c r="F143" s="39"/>
+      <c r="D143" s="49"/>
+      <c r="E143" s="90"/>
+      <c r="F143" s="91"/>
       <c r="G143" s="12"/>
       <c r="H143" s="32">
         <v>2</v>
@@ -8225,17 +8234,17 @@
       <c r="I143" s="32"/>
       <c r="J143" s="12"/>
     </row>
-    <row r="144" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="68"/>
+    <row r="144" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="80"/>
       <c r="B144" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="41" t="s">
+      <c r="C144" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D144" s="42"/>
-      <c r="E144" s="38"/>
-      <c r="F144" s="39"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="90"/>
+      <c r="F144" s="91"/>
       <c r="G144" s="12"/>
       <c r="H144" s="32">
         <v>2</v>
@@ -8243,17 +8252,17 @@
       <c r="I144" s="32"/>
       <c r="J144" s="12"/>
     </row>
-    <row r="145" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="68"/>
+    <row r="145" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="80"/>
       <c r="B145" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C145" s="41" t="s">
+      <c r="C145" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D145" s="42"/>
-      <c r="E145" s="38"/>
-      <c r="F145" s="39"/>
+      <c r="D145" s="50"/>
+      <c r="E145" s="90"/>
+      <c r="F145" s="91"/>
       <c r="G145" s="12"/>
       <c r="H145" s="32">
         <v>2</v>
@@ -8261,17 +8270,17 @@
       <c r="I145" s="32"/>
       <c r="J145" s="12"/>
     </row>
-    <row r="146" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="68"/>
+    <row r="146" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="80"/>
       <c r="B146" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="41" t="s">
+      <c r="C146" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D146" s="42"/>
-      <c r="E146" s="38"/>
-      <c r="F146" s="39"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="90"/>
+      <c r="F146" s="91"/>
       <c r="G146" s="12"/>
       <c r="H146" s="32">
         <v>2</v>
@@ -8279,17 +8288,17 @@
       <c r="I146" s="32"/>
       <c r="J146" s="12"/>
     </row>
-    <row r="147" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="69"/>
+    <row r="147" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="81"/>
       <c r="B147" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="41" t="s">
+      <c r="C147" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="D147" s="42"/>
-      <c r="E147" s="38"/>
-      <c r="F147" s="39"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="90"/>
+      <c r="F147" s="91"/>
       <c r="G147" s="12"/>
       <c r="H147" s="32">
         <v>2</v>
@@ -8297,33 +8306,33 @@
       <c r="I147" s="32"/>
       <c r="J147" s="12"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>26</v>
       </c>
-      <c r="B148" s="40" t="s">
+      <c r="B148" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C148" s="40"/>
-      <c r="D148" s="40"/>
-      <c r="E148" s="40"/>
-      <c r="F148" s="40"/>
-      <c r="G148" s="40"/>
-      <c r="H148" s="40"/>
-      <c r="I148" s="40"/>
-      <c r="J148" s="40"/>
-    </row>
-    <row r="149" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C148" s="46"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="46"/>
+      <c r="F148" s="46"/>
+      <c r="G148" s="46"/>
+      <c r="H148" s="46"/>
+      <c r="I148" s="46"/>
+      <c r="J148" s="46"/>
+    </row>
+    <row r="149" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C149" s="41" t="s">
+      <c r="C149" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="D149" s="41"/>
-      <c r="E149" s="38"/>
-      <c r="F149" s="39"/>
+      <c r="D149" s="49"/>
+      <c r="E149" s="90"/>
+      <c r="F149" s="91"/>
       <c r="G149" s="12"/>
       <c r="H149" s="32">
         <v>2</v>
@@ -8331,17 +8340,17 @@
       <c r="I149" s="32"/>
       <c r="J149" s="12"/>
     </row>
-    <row r="150" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
       <c r="B150" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C150" s="41" t="s">
+      <c r="C150" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="D150" s="41"/>
-      <c r="E150" s="38"/>
-      <c r="F150" s="39"/>
+      <c r="D150" s="49"/>
+      <c r="E150" s="90"/>
+      <c r="F150" s="91"/>
       <c r="G150" s="12"/>
       <c r="H150" s="32">
         <v>2</v>
@@ -8349,17 +8358,17 @@
       <c r="I150" s="32"/>
       <c r="J150" s="12"/>
     </row>
-    <row r="151" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C151" s="41" t="s">
+      <c r="C151" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D151" s="41"/>
-      <c r="E151" s="38"/>
-      <c r="F151" s="39"/>
+      <c r="D151" s="49"/>
+      <c r="E151" s="90"/>
+      <c r="F151" s="91"/>
       <c r="G151" s="12"/>
       <c r="H151" s="32">
         <v>2</v>
@@ -8367,17 +8376,17 @@
       <c r="I151" s="32"/>
       <c r="J151" s="12"/>
     </row>
-    <row r="152" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C152" s="41" t="s">
+      <c r="C152" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="D152" s="42"/>
-      <c r="E152" s="38"/>
-      <c r="F152" s="39"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="90"/>
+      <c r="F152" s="91"/>
       <c r="G152" s="12"/>
       <c r="H152" s="32">
         <v>2</v>
@@ -8385,47 +8394,47 @@
       <c r="I152" s="32"/>
       <c r="J152" s="12"/>
     </row>
-    <row r="153" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="67">
+    <row r="153" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="79">
         <v>27</v>
       </c>
-      <c r="B153" s="56" t="s">
+      <c r="B153" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="C153" s="56"/>
-      <c r="D153" s="56"/>
-      <c r="E153" s="56"/>
-      <c r="F153" s="56"/>
-      <c r="G153" s="56"/>
-      <c r="H153" s="56"/>
-      <c r="I153" s="56"/>
-      <c r="J153" s="56"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="68"/>
-      <c r="B154" s="43" t="s">
+      <c r="C153" s="66"/>
+      <c r="D153" s="66"/>
+      <c r="E153" s="66"/>
+      <c r="F153" s="66"/>
+      <c r="G153" s="66"/>
+      <c r="H153" s="66"/>
+      <c r="I153" s="66"/>
+      <c r="J153" s="66"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="80"/>
+      <c r="B154" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C154" s="43"/>
-      <c r="D154" s="43"/>
-      <c r="E154" s="43"/>
-      <c r="F154" s="43"/>
-      <c r="G154" s="43"/>
-      <c r="H154" s="43"/>
-      <c r="I154" s="43"/>
-      <c r="J154" s="43"/>
-    </row>
-    <row r="155" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="68"/>
+      <c r="C154" s="51"/>
+      <c r="D154" s="51"/>
+      <c r="E154" s="51"/>
+      <c r="F154" s="51"/>
+      <c r="G154" s="51"/>
+      <c r="H154" s="51"/>
+      <c r="I154" s="51"/>
+      <c r="J154" s="51"/>
+    </row>
+    <row r="155" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="80"/>
       <c r="B155" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="41" t="s">
+      <c r="C155" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="D155" s="42"/>
-      <c r="E155" s="38"/>
-      <c r="F155" s="39"/>
+      <c r="D155" s="50"/>
+      <c r="E155" s="90"/>
+      <c r="F155" s="91"/>
       <c r="G155" s="12"/>
       <c r="H155" s="32">
         <v>2</v>
@@ -8433,17 +8442,17 @@
       <c r="I155" s="32"/>
       <c r="J155" s="12"/>
     </row>
-    <row r="156" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="68"/>
+    <row r="156" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="80"/>
       <c r="B156" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C156" s="41" t="s">
+      <c r="C156" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D156" s="42"/>
-      <c r="E156" s="38"/>
-      <c r="F156" s="39"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="90"/>
+      <c r="F156" s="91"/>
       <c r="G156" s="12"/>
       <c r="H156" s="32">
         <v>2</v>
@@ -8451,17 +8460,17 @@
       <c r="I156" s="32"/>
       <c r="J156" s="12"/>
     </row>
-    <row r="157" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="68"/>
+    <row r="157" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="80"/>
       <c r="B157" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C157" s="41" t="s">
+      <c r="C157" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="D157" s="42"/>
-      <c r="E157" s="38"/>
-      <c r="F157" s="39"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="90"/>
+      <c r="F157" s="91"/>
       <c r="G157" s="12"/>
       <c r="H157" s="32">
         <v>2</v>
@@ -8469,17 +8478,17 @@
       <c r="I157" s="32"/>
       <c r="J157" s="12"/>
     </row>
-    <row r="158" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="68"/>
+    <row r="158" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="80"/>
       <c r="B158" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C158" s="41" t="s">
+      <c r="C158" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="D158" s="42"/>
-      <c r="E158" s="38"/>
-      <c r="F158" s="39"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="90"/>
+      <c r="F158" s="91"/>
       <c r="G158" s="12"/>
       <c r="H158" s="32">
         <v>2</v>
@@ -8487,17 +8496,17 @@
       <c r="I158" s="32"/>
       <c r="J158" s="12"/>
     </row>
-    <row r="159" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="68"/>
+    <row r="159" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="80"/>
       <c r="B159" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C159" s="41" t="s">
+      <c r="C159" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D159" s="41"/>
-      <c r="E159" s="38"/>
-      <c r="F159" s="39"/>
+      <c r="D159" s="49"/>
+      <c r="E159" s="90"/>
+      <c r="F159" s="91"/>
       <c r="G159" s="12"/>
       <c r="H159" s="32">
         <v>2</v>
@@ -8505,17 +8514,17 @@
       <c r="I159" s="32"/>
       <c r="J159" s="12"/>
     </row>
-    <row r="160" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="68"/>
+    <row r="160" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="80"/>
       <c r="B160" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="41" t="s">
+      <c r="C160" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="D160" s="42"/>
-      <c r="E160" s="38"/>
-      <c r="F160" s="39"/>
+      <c r="D160" s="50"/>
+      <c r="E160" s="90"/>
+      <c r="F160" s="91"/>
       <c r="G160" s="12"/>
       <c r="H160" s="32">
         <v>2</v>
@@ -8523,17 +8532,17 @@
       <c r="I160" s="32"/>
       <c r="J160" s="12"/>
     </row>
-    <row r="161" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="68"/>
+    <row r="161" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="80"/>
       <c r="B161" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="41" t="s">
+      <c r="C161" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="D161" s="41"/>
-      <c r="E161" s="38"/>
-      <c r="F161" s="39"/>
+      <c r="D161" s="49"/>
+      <c r="E161" s="90"/>
+      <c r="F161" s="91"/>
       <c r="G161" s="12"/>
       <c r="H161" s="32">
         <v>2</v>
@@ -8541,17 +8550,17 @@
       <c r="I161" s="32"/>
       <c r="J161" s="12"/>
     </row>
-    <row r="162" spans="1:10" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="68"/>
+    <row r="162" spans="1:10" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="80"/>
       <c r="B162" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="41" t="s">
+      <c r="C162" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="D162" s="41"/>
-      <c r="E162" s="38"/>
-      <c r="F162" s="39"/>
+      <c r="D162" s="49"/>
+      <c r="E162" s="90"/>
+      <c r="F162" s="91"/>
       <c r="G162" s="20"/>
       <c r="H162" s="11">
         <v>2</v>
@@ -8559,17 +8568,17 @@
       <c r="I162" s="11"/>
       <c r="J162" s="20"/>
     </row>
-    <row r="163" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="68"/>
+    <row r="163" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="80"/>
       <c r="B163" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C163" s="41" t="s">
+      <c r="C163" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="D163" s="41"/>
-      <c r="E163" s="38"/>
-      <c r="F163" s="39"/>
+      <c r="D163" s="49"/>
+      <c r="E163" s="90"/>
+      <c r="F163" s="91"/>
       <c r="G163" s="12"/>
       <c r="H163" s="32">
         <v>2</v>
@@ -8577,31 +8586,31 @@
       <c r="I163" s="32"/>
       <c r="J163" s="12"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" s="68"/>
-      <c r="B164" s="43" t="s">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="80"/>
+      <c r="B164" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C164" s="43"/>
-      <c r="D164" s="43"/>
-      <c r="E164" s="43"/>
-      <c r="F164" s="43"/>
-      <c r="G164" s="43"/>
-      <c r="H164" s="43"/>
-      <c r="I164" s="43"/>
-      <c r="J164" s="43"/>
-    </row>
-    <row r="165" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="68"/>
+      <c r="C164" s="51"/>
+      <c r="D164" s="51"/>
+      <c r="E164" s="51"/>
+      <c r="F164" s="51"/>
+      <c r="G164" s="51"/>
+      <c r="H164" s="51"/>
+      <c r="I164" s="51"/>
+      <c r="J164" s="51"/>
+    </row>
+    <row r="165" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="80"/>
       <c r="B165" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C165" s="41" t="s">
+      <c r="C165" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="42"/>
-      <c r="E165" s="38"/>
-      <c r="F165" s="39"/>
+      <c r="D165" s="50"/>
+      <c r="E165" s="90"/>
+      <c r="F165" s="91"/>
       <c r="G165" s="12"/>
       <c r="H165" s="32">
         <v>2</v>
@@ -8609,17 +8618,17 @@
       <c r="I165" s="32"/>
       <c r="J165" s="12"/>
     </row>
-    <row r="166" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="68"/>
+    <row r="166" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="80"/>
       <c r="B166" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="41" t="s">
+      <c r="C166" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="D166" s="41"/>
-      <c r="E166" s="38"/>
-      <c r="F166" s="39"/>
+      <c r="D166" s="49"/>
+      <c r="E166" s="90"/>
+      <c r="F166" s="91"/>
       <c r="G166" s="12"/>
       <c r="H166" s="32">
         <v>2</v>
@@ -8627,17 +8636,17 @@
       <c r="I166" s="32"/>
       <c r="J166" s="12"/>
     </row>
-    <row r="167" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="68"/>
+    <row r="167" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="80"/>
       <c r="B167" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C167" s="41" t="s">
+      <c r="C167" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="D167" s="41"/>
-      <c r="E167" s="38"/>
-      <c r="F167" s="39"/>
+      <c r="D167" s="49"/>
+      <c r="E167" s="90"/>
+      <c r="F167" s="91"/>
       <c r="G167" s="12"/>
       <c r="H167" s="32">
         <v>2</v>
@@ -8645,17 +8654,17 @@
       <c r="I167" s="32"/>
       <c r="J167" s="12"/>
     </row>
-    <row r="168" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="68"/>
+    <row r="168" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="80"/>
       <c r="B168" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C168" s="41" t="s">
+      <c r="C168" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D168" s="41"/>
-      <c r="E168" s="38"/>
-      <c r="F168" s="39"/>
+      <c r="D168" s="49"/>
+      <c r="E168" s="90"/>
+      <c r="F168" s="91"/>
       <c r="G168" s="12"/>
       <c r="H168" s="32">
         <v>2</v>
@@ -8663,31 +8672,31 @@
       <c r="I168" s="32"/>
       <c r="J168" s="12"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169" s="68"/>
-      <c r="B169" s="43" t="s">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="80"/>
+      <c r="B169" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C169" s="43"/>
-      <c r="D169" s="43"/>
-      <c r="E169" s="43"/>
-      <c r="F169" s="43"/>
-      <c r="G169" s="43"/>
-      <c r="H169" s="43"/>
-      <c r="I169" s="43"/>
-      <c r="J169" s="43"/>
-    </row>
-    <row r="170" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="68"/>
+      <c r="C169" s="51"/>
+      <c r="D169" s="51"/>
+      <c r="E169" s="51"/>
+      <c r="F169" s="51"/>
+      <c r="G169" s="51"/>
+      <c r="H169" s="51"/>
+      <c r="I169" s="51"/>
+      <c r="J169" s="51"/>
+    </row>
+    <row r="170" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="80"/>
       <c r="B170" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C170" s="41" t="s">
+      <c r="C170" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="D170" s="42"/>
-      <c r="E170" s="38"/>
-      <c r="F170" s="39"/>
+      <c r="D170" s="50"/>
+      <c r="E170" s="90"/>
+      <c r="F170" s="91"/>
       <c r="G170" s="12"/>
       <c r="H170" s="32">
         <v>2</v>
@@ -8695,17 +8704,17 @@
       <c r="I170" s="32"/>
       <c r="J170" s="12"/>
     </row>
-    <row r="171" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="68"/>
+    <row r="171" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="80"/>
       <c r="B171" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C171" s="41" t="s">
+      <c r="C171" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="D171" s="41"/>
-      <c r="E171" s="38"/>
-      <c r="F171" s="39"/>
+      <c r="D171" s="49"/>
+      <c r="E171" s="90"/>
+      <c r="F171" s="91"/>
       <c r="G171" s="12"/>
       <c r="H171" s="32">
         <v>2</v>
@@ -8713,17 +8722,17 @@
       <c r="I171" s="32"/>
       <c r="J171" s="12"/>
     </row>
-    <row r="172" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="69"/>
+    <row r="172" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="81"/>
       <c r="B172" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C172" s="41" t="s">
+      <c r="C172" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D172" s="41"/>
-      <c r="E172" s="38"/>
-      <c r="F172" s="39"/>
+      <c r="D172" s="49"/>
+      <c r="E172" s="90"/>
+      <c r="F172" s="91"/>
       <c r="G172" s="12"/>
       <c r="H172" s="32">
         <v>2</v>
@@ -8731,33 +8740,33 @@
       <c r="I172" s="32"/>
       <c r="J172" s="12"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173" s="67">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="79">
         <v>28</v>
       </c>
-      <c r="B173" s="59" t="s">
+      <c r="B173" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="C173" s="59"/>
-      <c r="D173" s="59"/>
-      <c r="E173" s="59"/>
-      <c r="F173" s="59"/>
-      <c r="G173" s="59"/>
-      <c r="H173" s="59"/>
-      <c r="I173" s="59"/>
-      <c r="J173" s="59"/>
-    </row>
-    <row r="174" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="68"/>
+      <c r="C173" s="71"/>
+      <c r="D173" s="71"/>
+      <c r="E173" s="71"/>
+      <c r="F173" s="71"/>
+      <c r="G173" s="71"/>
+      <c r="H173" s="71"/>
+      <c r="I173" s="71"/>
+      <c r="J173" s="71"/>
+    </row>
+    <row r="174" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="80"/>
       <c r="B174" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C174" s="57" t="s">
+      <c r="C174" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="D174" s="58"/>
-      <c r="E174" s="38"/>
-      <c r="F174" s="39"/>
+      <c r="D174" s="70"/>
+      <c r="E174" s="90"/>
+      <c r="F174" s="91"/>
       <c r="G174" s="12"/>
       <c r="H174" s="32">
         <v>2</v>
@@ -8765,17 +8774,17 @@
       <c r="I174" s="32"/>
       <c r="J174" s="12"/>
     </row>
-    <row r="175" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="68"/>
+    <row r="175" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="80"/>
       <c r="B175" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C175" s="57" t="s">
+      <c r="C175" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="D175" s="58"/>
-      <c r="E175" s="38"/>
-      <c r="F175" s="39"/>
+      <c r="D175" s="70"/>
+      <c r="E175" s="90"/>
+      <c r="F175" s="91"/>
       <c r="G175" s="12"/>
       <c r="H175" s="32">
         <v>2</v>
@@ -8783,17 +8792,17 @@
       <c r="I175" s="32"/>
       <c r="J175" s="12"/>
     </row>
-    <row r="176" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="69"/>
+    <row r="176" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="81"/>
       <c r="B176" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C176" s="57" t="s">
+      <c r="C176" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="D176" s="57"/>
-      <c r="E176" s="38"/>
-      <c r="F176" s="39"/>
+      <c r="D176" s="69"/>
+      <c r="E176" s="90"/>
+      <c r="F176" s="91"/>
       <c r="G176" s="12"/>
       <c r="H176" s="32">
         <v>2</v>
@@ -8801,153 +8810,153 @@
       <c r="I176" s="32"/>
       <c r="J176" s="12"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" s="43" t="s">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B177" s="43"/>
-      <c r="C177" s="43"/>
-      <c r="D177" s="43"/>
-      <c r="E177" s="43"/>
-      <c r="F177" s="43"/>
-      <c r="G177" s="43"/>
+      <c r="B177" s="51"/>
+      <c r="C177" s="51"/>
+      <c r="D177" s="51"/>
+      <c r="E177" s="51"/>
+      <c r="F177" s="51"/>
+      <c r="G177" s="51"/>
       <c r="H177" s="32">
         <v>244</v>
       </c>
       <c r="I177" s="32"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" s="43" t="s">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="B178" s="43"/>
-      <c r="C178" s="43"/>
-      <c r="D178" s="43"/>
-      <c r="E178" s="43"/>
-      <c r="F178" s="43"/>
-      <c r="G178" s="43"/>
-      <c r="H178" s="45"/>
-      <c r="I178" s="45"/>
-    </row>
-    <row r="179" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="51"/>
+      <c r="C178" s="51"/>
+      <c r="D178" s="51"/>
+      <c r="E178" s="51"/>
+      <c r="F178" s="51"/>
+      <c r="G178" s="51"/>
+      <c r="H178" s="57"/>
+      <c r="I178" s="57"/>
+    </row>
+    <row r="179" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="26"/>
       <c r="B179" s="27"/>
-      <c r="C179" s="64"/>
-      <c r="D179" s="64"/>
+      <c r="C179" s="76"/>
+      <c r="D179" s="76"/>
       <c r="E179" s="26"/>
       <c r="F179" s="26"/>
       <c r="G179" s="26"/>
       <c r="H179" s="28"/>
     </row>
-    <row r="180" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="73" t="s">
+    <row r="180" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="B180" s="73"/>
-      <c r="C180" s="73"/>
-      <c r="D180" s="73"/>
-      <c r="E180" s="73"/>
-      <c r="F180" s="73"/>
-      <c r="G180" s="73"/>
-      <c r="H180" s="73"/>
-      <c r="I180" s="73"/>
-      <c r="J180" s="73"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A181" s="61"/>
-      <c r="B181" s="61"/>
-      <c r="C181" s="61"/>
-      <c r="D181" s="61"/>
-      <c r="E181" s="61"/>
-      <c r="F181" s="61"/>
-      <c r="G181" s="61"/>
-      <c r="H181" s="61"/>
-      <c r="I181" s="61"/>
-      <c r="J181" s="61"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" s="62"/>
-      <c r="B182" s="62"/>
-      <c r="C182" s="62"/>
-      <c r="D182" s="62"/>
-      <c r="E182" s="62"/>
-      <c r="F182" s="62"/>
-      <c r="G182" s="62"/>
-      <c r="H182" s="62"/>
-      <c r="I182" s="62"/>
-      <c r="J182" s="62"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="63"/>
-      <c r="B183" s="63"/>
-      <c r="C183" s="63"/>
-      <c r="D183" s="63"/>
-      <c r="E183" s="63"/>
-      <c r="F183" s="63"/>
-      <c r="G183" s="63"/>
-      <c r="H183" s="63"/>
-      <c r="I183" s="63"/>
-      <c r="J183" s="63"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" s="63"/>
-      <c r="B184" s="63"/>
-      <c r="C184" s="63"/>
-      <c r="D184" s="63"/>
-      <c r="E184" s="63"/>
-      <c r="F184" s="63"/>
-      <c r="G184" s="63"/>
-      <c r="H184" s="63"/>
-      <c r="I184" s="63"/>
-      <c r="J184" s="63"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" s="74"/>
-      <c r="B185" s="74"/>
-      <c r="C185" s="74"/>
-      <c r="D185" s="74"/>
-      <c r="E185" s="74"/>
-      <c r="F185" s="74"/>
-      <c r="G185" s="74"/>
-      <c r="H185" s="74"/>
-      <c r="I185" s="74"/>
-      <c r="J185" s="74"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A186" s="63"/>
-      <c r="B186" s="63"/>
-      <c r="C186" s="63"/>
-      <c r="D186" s="63"/>
-      <c r="E186" s="63"/>
-      <c r="F186" s="63"/>
-      <c r="G186" s="63"/>
-      <c r="H186" s="63"/>
-      <c r="I186" s="63"/>
-      <c r="J186" s="63"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" s="63"/>
-      <c r="B187" s="63"/>
-      <c r="C187" s="63"/>
-      <c r="D187" s="63"/>
-      <c r="E187" s="63"/>
-      <c r="F187" s="63"/>
-      <c r="G187" s="63"/>
-      <c r="H187" s="63"/>
-      <c r="I187" s="63"/>
-      <c r="J187" s="63"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B180" s="85"/>
+      <c r="C180" s="85"/>
+      <c r="D180" s="85"/>
+      <c r="E180" s="85"/>
+      <c r="F180" s="85"/>
+      <c r="G180" s="85"/>
+      <c r="H180" s="85"/>
+      <c r="I180" s="85"/>
+      <c r="J180" s="85"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="73"/>
+      <c r="B181" s="73"/>
+      <c r="C181" s="73"/>
+      <c r="D181" s="73"/>
+      <c r="E181" s="73"/>
+      <c r="F181" s="73"/>
+      <c r="G181" s="73"/>
+      <c r="H181" s="73"/>
+      <c r="I181" s="73"/>
+      <c r="J181" s="73"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="74"/>
+      <c r="B182" s="74"/>
+      <c r="C182" s="74"/>
+      <c r="D182" s="74"/>
+      <c r="E182" s="74"/>
+      <c r="F182" s="74"/>
+      <c r="G182" s="74"/>
+      <c r="H182" s="74"/>
+      <c r="I182" s="74"/>
+      <c r="J182" s="74"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="75"/>
+      <c r="B183" s="75"/>
+      <c r="C183" s="75"/>
+      <c r="D183" s="75"/>
+      <c r="E183" s="75"/>
+      <c r="F183" s="75"/>
+      <c r="G183" s="75"/>
+      <c r="H183" s="75"/>
+      <c r="I183" s="75"/>
+      <c r="J183" s="75"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="75"/>
+      <c r="B184" s="75"/>
+      <c r="C184" s="75"/>
+      <c r="D184" s="75"/>
+      <c r="E184" s="75"/>
+      <c r="F184" s="75"/>
+      <c r="G184" s="75"/>
+      <c r="H184" s="75"/>
+      <c r="I184" s="75"/>
+      <c r="J184" s="75"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="86"/>
+      <c r="B185" s="86"/>
+      <c r="C185" s="86"/>
+      <c r="D185" s="86"/>
+      <c r="E185" s="86"/>
+      <c r="F185" s="86"/>
+      <c r="G185" s="86"/>
+      <c r="H185" s="86"/>
+      <c r="I185" s="86"/>
+      <c r="J185" s="86"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="75"/>
+      <c r="B186" s="75"/>
+      <c r="C186" s="75"/>
+      <c r="D186" s="75"/>
+      <c r="E186" s="75"/>
+      <c r="F186" s="75"/>
+      <c r="G186" s="75"/>
+      <c r="H186" s="75"/>
+      <c r="I186" s="75"/>
+      <c r="J186" s="75"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="75"/>
+      <c r="B187" s="75"/>
+      <c r="C187" s="75"/>
+      <c r="D187" s="75"/>
+      <c r="E187" s="75"/>
+      <c r="F187" s="75"/>
+      <c r="G187" s="75"/>
+      <c r="H187" s="75"/>
+      <c r="I187" s="75"/>
+      <c r="J187" s="75"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B188" s="5"/>
-      <c r="C188" s="60"/>
-      <c r="D188" s="60"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C188" s="72"/>
+      <c r="D188" s="72"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B189" s="5"/>
       <c r="C189" s="34"/>
       <c r="D189" s="34"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>180</v>
       </c>
@@ -8958,48 +8967,48 @@
         <v>181</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C191" s="60"/>
-      <c r="D191" s="60"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C192" s="60"/>
-      <c r="D192" s="60"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C191" s="72"/>
+      <c r="D191" s="72"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C192" s="72"/>
+      <c r="D192" s="72"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C193" s="60"/>
-      <c r="D193" s="60"/>
-    </row>
-    <row r="194" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C193" s="72"/>
+      <c r="D193" s="72"/>
+    </row>
+    <row r="194" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
-      <c r="E194" s="44" t="s">
+      <c r="E194" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="F194" s="46" t="s">
+      <c r="F194" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="G194" s="46"/>
-      <c r="H194" s="46"/>
-      <c r="I194" s="37" t="s">
+      <c r="G194" s="58"/>
+      <c r="H194" s="58"/>
+      <c r="I194" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="J194" s="37"/>
-    </row>
-    <row r="195" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C195" s="60"/>
-      <c r="D195" s="60"/>
-      <c r="E195" s="44"/>
-      <c r="F195" s="45" t="s">
+      <c r="J194" s="43"/>
+    </row>
+    <row r="195" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C195" s="72"/>
+      <c r="D195" s="72"/>
+      <c r="E195" s="56"/>
+      <c r="F195" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="G195" s="45"/>
+      <c r="G195" s="57"/>
       <c r="H195" s="11" t="s">
         <v>184</v>
       </c>
@@ -9010,46 +9019,46 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C196" s="60"/>
-      <c r="D196" s="60"/>
-      <c r="E196" s="44"/>
-      <c r="F196" s="47"/>
-      <c r="G196" s="48"/>
+    <row r="196" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C196" s="72"/>
+      <c r="D196" s="72"/>
+      <c r="E196" s="56"/>
+      <c r="F196" s="44"/>
+      <c r="G196" s="45"/>
       <c r="H196" s="12"/>
       <c r="I196" s="32"/>
       <c r="J196" s="12"/>
     </row>
-    <row r="197" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>187</v>
       </c>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
-      <c r="E197" s="44"/>
-      <c r="F197" s="47"/>
-      <c r="G197" s="48"/>
+      <c r="E197" s="56"/>
+      <c r="F197" s="44"/>
+      <c r="G197" s="45"/>
       <c r="H197" s="12"/>
       <c r="I197" s="32"/>
       <c r="J197" s="12"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C199" s="60"/>
-      <c r="D199" s="60"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C200" s="60"/>
-      <c r="D200" s="60"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C199" s="72"/>
+      <c r="D199" s="72"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C200" s="72"/>
+      <c r="D200" s="72"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="29" t="s">
         <v>192</v>
       </c>
@@ -9060,7 +9069,7 @@
       <c r="F202" s="29"/>
       <c r="G202" s="29"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="29" t="s">
         <v>193</v>
       </c>
@@ -9071,7 +9080,7 @@
       <c r="F203" s="29"/>
       <c r="G203" s="29"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="29" t="s">
         <v>194</v>
       </c>
@@ -9082,7 +9091,7 @@
       <c r="F204" s="29"/>
       <c r="G204" s="29"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="29"/>
       <c r="B205" s="29"/>
       <c r="C205" s="29"/>
@@ -9242,12 +9251,6 @@
     <mergeCell ref="E83:F83"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="E84:F84"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:F92"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="E85:F85"/>
     <mergeCell ref="C86:D86"/>
@@ -9268,6 +9271,12 @@
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="E97:F97"/>
     <mergeCell ref="A87:A93"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:F92"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="E103:F103"/>
     <mergeCell ref="A104:A107"/>
@@ -9446,12 +9455,21 @@
     <mergeCell ref="F197:G197"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">JDHWM6R55FRK-3-1092</_dlc_DocId>
@@ -9463,7 +9481,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3398B66F6FF2D41BB4BC1F9AFA58185" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a6c582f2b0bd71f194a9173d25feba3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbc7d0c2066ec31eb77a1a91b3421a26" ns2:_="">
     <xsd:import namespace="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
@@ -9608,7 +9626,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -9654,16 +9672,15 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0586B0C-72D9-459D-878A-52EF5E55C98F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E47B31A-A7EB-4A73-B77C-F06B3011795A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -9679,7 +9696,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAFC6CD-1FC9-4EBB-916C-AD44C21D2122}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9697,18 +9714,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6AC0C7-AF37-4634-8FCC-F05D3E4033D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0586B0C-72D9-459D-878A-52EF5E55C98F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>